--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_16_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1201634.990576819</v>
+        <v>1140179.888028572</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6517914.721297763</v>
+        <v>6517914.721297764</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.79449917602493</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="H11" t="n">
-        <v>60.45095331698762</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>125.2769930127145</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.04867345915548</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>158.6609526597583</v>
       </c>
       <c r="T11" t="n">
-        <v>188.9821206128328</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1451,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>82.29300032086994</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1610924573098</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8157108926651</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>48.68595767018169</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.74378092136416</v>
+        <v>26.74378092136415</v>
       </c>
       <c r="S12" t="n">
         <v>149.7201507990578</v>
       </c>
       <c r="T12" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>188.0983597307238</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9996742052518</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4135685089263</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>121.1335602906031</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.15375446815024</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>163.301697367633</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>155.4067783766277</v>
       </c>
       <c r="E14" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>166.4554518357831</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>11.04867345915548</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1610924573098</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8157108926651</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>48.68595767018169</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>127.5854881011703</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>182.7290734603003</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
     </row>
     <row r="16">
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.4135685089263</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.153754468150254</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>188.9821206128328</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="T16" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>166.4554518357831</v>
+        <v>95.99735941487201</v>
       </c>
       <c r="V16" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>188.9821206128329</v>
+        <v>188.9821206128327</v>
       </c>
       <c r="F17" t="n">
-        <v>166.4554518357832</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>11.04867345915548</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>155.4067783766276</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>188.9821206128327</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>188.9821206128327</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.1610924573098</v>
       </c>
       <c r="H18" t="n">
-        <v>42.81254827088413</v>
+        <v>74.20726759792198</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.74378092136416</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>149.7201507990578</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>188.9821206128329</v>
+        <v>188.9821206128327</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>188.9821206128327</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>17.83997881757083</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>188.9821206128327</v>
       </c>
       <c r="T19" t="n">
-        <v>188.9821206128329</v>
+        <v>188.9821206128327</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>188.9821206128327</v>
       </c>
       <c r="V19" t="n">
-        <v>188.9821206128329</v>
+        <v>166.455451835783</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>166.4554518357832</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>166.4554518357831</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>188.9821206128329</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>188.9821206128329</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>77.90502116042218</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.1610924573098</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>188.9043887987486</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.9821206128329</v>
+        <v>188.9821206128328</v>
       </c>
     </row>
     <row r="22">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>88.11982226078483</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>84.37729901487019</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>125.6392254108145</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.153754468150254</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>377.9642412256655</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>377.9642412256655</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>294.6636864565801</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>316.8422050242308</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>125.2769930127145</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>11.04867345915548</v>
       </c>
       <c r="S23" t="n">
-        <v>24.30183919453184</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.1610924573098</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>50.98821191353036</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>48.68595767018169</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>26.74378092136416</v>
+        <v>16.1213602825105</v>
       </c>
       <c r="S24" t="n">
-        <v>149.7201507990578</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>195.398727358318</v>
       </c>
       <c r="U24" t="n">
         <v>225.8635909819024</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>88.63000705477455</v>
+        <v>166.9996742052518</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>206.7408527760827</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.5652531453449</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>377.9642412256655</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>377.9642412256655</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>163.2012775526524</v>
       </c>
       <c r="G26" t="n">
-        <v>377.9642412256655</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>316.8422050242308</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>16.06869864733519</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>11.04867345915548</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>158.6609526597583</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>377.9642412256656</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.1610924573098</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>100.8157108926651</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>48.68595767018169</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>26.74378092136416</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>195.398727358318</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8635909819024</v>
+        <v>176.0013687894385</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>92.3002208443658</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>203.3410097195784</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>279.7053946165881</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="F29" t="n">
-        <v>377.9642412256655</v>
+        <v>329.2620934254919</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>316.8422050242308</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>125.2769930127145</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>251.168857324551</v>
       </c>
       <c r="V29" t="n">
-        <v>137.6968814139753</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>52.85137876859058</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.1610924573098</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>100.8157108926651</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>48.68595767018169</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>26.74378092136416</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>195.398727358318</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>183.8202414226393</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2949,31 +2949,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.4135685089263</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.27390578493653</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>132.7207069429703</v>
+        <v>61.12074126449326</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.7100128645788</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>96.86042679102253</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>377.9642412256655</v>
+        <v>357.8347792720513</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="F32" t="n">
-        <v>341.1440442187626</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>11.04867345915548</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.9642412256655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>9.375412708544342</v>
       </c>
       <c r="C33" t="n">
-        <v>142.6877847630222</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.1610924573098</v>
       </c>
       <c r="H33" t="n">
-        <v>100.8157108926651</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>48.68595767018169</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>26.74378092136416</v>
       </c>
       <c r="S33" t="n">
-        <v>149.7201507990578</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8635909819024</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>32.52808104652108</v>
       </c>
       <c r="E34" t="n">
-        <v>17.66749699460832</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,13 +3204,13 @@
         <v>166.9996742052518</v>
       </c>
       <c r="H34" t="n">
-        <v>153.4135685089263</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>125.6392254108145</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.27390578493653</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.153754468150254</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>206.7408527760827</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U34" t="n">
-        <v>286.264958166316</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="C35" t="n">
-        <v>188.9821206128327</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>155.4067783766276</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>188.9821206128327</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>188.9821206128327</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>11.04867345915548</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>166.455451835783</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>26.48625889261462</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>48.68595767018169</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>182.7290734603</v>
       </c>
       <c r="Y36" t="n">
-        <v>188.9821206128327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9996742052518</v>
+        <v>140.0277915826963</v>
       </c>
       <c r="H37" t="n">
-        <v>153.4135685089263</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>125.6392254108145</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>23.27390578493653</v>
@@ -3471,22 +3471,22 @@
         <v>3.153754468150254</v>
       </c>
       <c r="R37" t="n">
-        <v>115.5006372732708</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,61 +3505,61 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>188.9821206128328</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7.794499176024765</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>158.6609526597583</v>
+      </c>
+      <c r="T38" t="n">
         <v>188.9821206128328</v>
       </c>
-      <c r="G38" t="n">
+      <c r="U38" t="n">
         <v>188.9821206128328</v>
-      </c>
-      <c r="H38" t="n">
-        <v>30.12978536391309</v>
-      </c>
-      <c r="I38" t="n">
-        <v>125.2769930127145</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>11.04867345915548</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>100.8157108926651</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>149.7201507990578</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>188.9821206128328</v>
+        <v>146.4387658050869</v>
       </c>
       <c r="W39" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>166.4554518357831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>30.58099042466266</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.153754468150254</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>132.7207069429703</v>
@@ -3717,13 +3717,13 @@
         <v>188.9821206128328</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="V40" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>33.73474489281281</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="E41" t="n">
-        <v>60.45095331698762</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="F41" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>125.2769930127145</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>11.04867345915548</v>
       </c>
       <c r="S41" t="n">
-        <v>158.6609526597583</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>155.4067783766276</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,22 +3821,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.1610924573098</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>100.8157108926651</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>188.9821206128328</v>
+        <v>31.20223337796806</v>
       </c>
       <c r="V42" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>166.4554518357831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.4135685089263</v>
       </c>
       <c r="I43" t="n">
-        <v>125.6392254108145</v>
+        <v>117.6919884019457</v>
       </c>
       <c r="J43" t="n">
-        <v>23.27390578493653</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.153754468150254</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>76.49051328070732</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>155.4067783766276</v>
       </c>
       <c r="C44" t="n">
         <v>188.9821206128328</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>11.04867345915548</v>
       </c>
       <c r="S44" t="n">
-        <v>155.4067783766276</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>188.9821206128328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>60.10879802988174</v>
       </c>
       <c r="E45" t="n">
-        <v>30.51095844492866</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.68595767018169</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9996742052518</v>
+        <v>166.4554518357831</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>52.56343683224371</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.153754468150254</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>132.7207069429703</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>188.9821206128328</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>188.9821206128328</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>393.6135867626983</v>
+        <v>213.8828320620144</v>
       </c>
       <c r="C11" t="n">
-        <v>393.6135867626983</v>
+        <v>213.8828320620144</v>
       </c>
       <c r="D11" t="n">
-        <v>202.722555840645</v>
+        <v>213.8828320620144</v>
       </c>
       <c r="E11" t="n">
-        <v>202.722555840645</v>
+        <v>206.0096005710801</v>
       </c>
       <c r="F11" t="n">
-        <v>202.722555840645</v>
+        <v>206.0096005710801</v>
       </c>
       <c r="G11" t="n">
-        <v>202.722555840645</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="H11" t="n">
-        <v>141.6609868335868</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="I11" t="n">
         <v>15.11856964902663</v>
@@ -5044,49 +5044,49 @@
         <v>21.57376286149793</v>
       </c>
       <c r="K11" t="n">
-        <v>81.98694239675342</v>
+        <v>81.98694239675348</v>
       </c>
       <c r="L11" t="n">
-        <v>193.8365955669363</v>
+        <v>193.8365955669364</v>
       </c>
       <c r="M11" t="n">
-        <v>349.9603232837997</v>
+        <v>349.9603232837999</v>
       </c>
       <c r="N11" t="n">
-        <v>513.2241045162868</v>
+        <v>513.2241045162871</v>
       </c>
       <c r="O11" t="n">
-        <v>654.0542022708979</v>
+        <v>654.0542022708983</v>
       </c>
       <c r="P11" t="n">
-        <v>739.7484316260388</v>
+        <v>739.7484316260393</v>
       </c>
       <c r="Q11" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="R11" t="n">
-        <v>744.7682062299621</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="S11" t="n">
-        <v>584.5046176847517</v>
+        <v>595.6648939061213</v>
       </c>
       <c r="T11" t="n">
-        <v>393.6135867626983</v>
+        <v>404.7738629840678</v>
       </c>
       <c r="U11" t="n">
-        <v>393.6135867626983</v>
+        <v>404.7738629840678</v>
       </c>
       <c r="V11" t="n">
-        <v>393.6135867626983</v>
+        <v>404.7738629840678</v>
       </c>
       <c r="W11" t="n">
-        <v>393.6135867626983</v>
+        <v>404.7738629840678</v>
       </c>
       <c r="X11" t="n">
-        <v>393.6135867626983</v>
+        <v>404.7738629840678</v>
       </c>
       <c r="Y11" t="n">
-        <v>393.6135867626983</v>
+        <v>404.7738629840678</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>386.7910558520839</v>
+        <v>387.6837436117904</v>
       </c>
       <c r="C12" t="n">
-        <v>386.7910558520839</v>
+        <v>213.2307143306634</v>
       </c>
       <c r="D12" t="n">
-        <v>386.7910558520839</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="E12" t="n">
-        <v>386.7910558520839</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="F12" t="n">
-        <v>303.6668131037304</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="G12" t="n">
-        <v>166.1303560761447</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="H12" t="n">
         <v>64.29630466941218</v>
@@ -5120,52 +5120,52 @@
         <v>15.11856964902663</v>
       </c>
       <c r="J12" t="n">
-        <v>15.11856964902663</v>
+        <v>16.96051594049248</v>
       </c>
       <c r="K12" t="n">
-        <v>67.68184810466532</v>
+        <v>69.52379439613121</v>
       </c>
       <c r="L12" t="n">
-        <v>184.6822038548815</v>
+        <v>186.5241501463474</v>
       </c>
       <c r="M12" t="n">
-        <v>340.5729686373895</v>
+        <v>342.4149149288555</v>
       </c>
       <c r="N12" t="n">
-        <v>514.9983430119901</v>
+        <v>516.8402893034561</v>
       </c>
       <c r="O12" t="n">
-        <v>652.3436886031752</v>
+        <v>654.1856348946412</v>
       </c>
       <c r="P12" t="n">
-        <v>743.2423707763811</v>
+        <v>745.0843170678471</v>
       </c>
       <c r="Q12" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="R12" t="n">
-        <v>728.9145623287411</v>
+        <v>728.9145623287416</v>
       </c>
       <c r="S12" t="n">
-        <v>577.6820867741372</v>
+        <v>577.6820867741377</v>
       </c>
       <c r="T12" t="n">
-        <v>386.7910558520839</v>
+        <v>577.6820867741377</v>
       </c>
       <c r="U12" t="n">
-        <v>386.7910558520839</v>
+        <v>577.6820867741377</v>
       </c>
       <c r="V12" t="n">
-        <v>386.7910558520839</v>
+        <v>577.6820867741377</v>
       </c>
       <c r="W12" t="n">
-        <v>386.7910558520839</v>
+        <v>387.6837436117904</v>
       </c>
       <c r="X12" t="n">
-        <v>386.7910558520839</v>
+        <v>387.6837436117904</v>
       </c>
       <c r="Y12" t="n">
-        <v>386.7910558520839</v>
+        <v>387.6837436117904</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>755.9284824513312</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="C13" t="n">
-        <v>755.9284824513312</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="D13" t="n">
-        <v>755.9284824513312</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="E13" t="n">
-        <v>608.0153888689381</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="F13" t="n">
-        <v>461.1254413710277</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="G13" t="n">
-        <v>292.4389017697633</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="H13" t="n">
-        <v>137.4757012556964</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="I13" t="n">
         <v>15.11856964902663</v>
@@ -5202,49 +5202,49 @@
         <v>15.11856964902663</v>
       </c>
       <c r="K13" t="n">
-        <v>107.0916914632739</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="L13" t="n">
-        <v>280.3120567509152</v>
+        <v>102.6886068078184</v>
       </c>
       <c r="M13" t="n">
-        <v>467.4043561576198</v>
+        <v>289.780906214523</v>
       </c>
       <c r="N13" t="n">
-        <v>654.4966555643242</v>
+        <v>476.8732056212276</v>
       </c>
       <c r="O13" t="n">
-        <v>656.1399951955646</v>
+        <v>639.9277949546915</v>
       </c>
       <c r="P13" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="Q13" t="n">
-        <v>755.9284824513312</v>
+        <v>752.7428718774426</v>
       </c>
       <c r="R13" t="n">
-        <v>755.9284824513312</v>
+        <v>752.7428718774426</v>
       </c>
       <c r="S13" t="n">
-        <v>755.9284824513312</v>
+        <v>587.791662415187</v>
       </c>
       <c r="T13" t="n">
-        <v>755.9284824513312</v>
+        <v>396.9006314931336</v>
       </c>
       <c r="U13" t="n">
-        <v>755.9284824513312</v>
+        <v>206.0096005710801</v>
       </c>
       <c r="V13" t="n">
-        <v>755.9284824513312</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="W13" t="n">
-        <v>755.9284824513312</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="X13" t="n">
-        <v>755.9284824513312</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="Y13" t="n">
-        <v>755.9284824513312</v>
+        <v>15.11856964902663</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>755.9284824513312</v>
+        <v>362.9861443858555</v>
       </c>
       <c r="C14" t="n">
-        <v>755.9284824513312</v>
+        <v>172.0951134638021</v>
       </c>
       <c r="D14" t="n">
-        <v>755.9284824513312</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="E14" t="n">
-        <v>565.0374515292779</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="F14" t="n">
-        <v>374.1464206072245</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="G14" t="n">
-        <v>183.2553896851712</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="H14" t="n">
         <v>15.11856964902663</v>
@@ -5281,49 +5281,49 @@
         <v>21.57376286149793</v>
       </c>
       <c r="K14" t="n">
-        <v>81.98694239675342</v>
+        <v>81.98694239675365</v>
       </c>
       <c r="L14" t="n">
-        <v>193.8365955669363</v>
+        <v>193.8365955669366</v>
       </c>
       <c r="M14" t="n">
-        <v>349.9603232837997</v>
+        <v>349.9603232838</v>
       </c>
       <c r="N14" t="n">
-        <v>513.2241045162868</v>
+        <v>513.2241045162873</v>
       </c>
       <c r="O14" t="n">
-        <v>654.0542022708979</v>
+        <v>654.0542022708985</v>
       </c>
       <c r="P14" t="n">
-        <v>739.7484316260388</v>
+        <v>739.7484316260392</v>
       </c>
       <c r="Q14" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513315</v>
       </c>
       <c r="R14" t="n">
-        <v>755.9284824513312</v>
+        <v>744.7682062299624</v>
       </c>
       <c r="S14" t="n">
-        <v>755.9284824513312</v>
+        <v>744.7682062299624</v>
       </c>
       <c r="T14" t="n">
-        <v>755.9284824513312</v>
+        <v>553.8771753079089</v>
       </c>
       <c r="U14" t="n">
-        <v>755.9284824513312</v>
+        <v>362.9861443858555</v>
       </c>
       <c r="V14" t="n">
-        <v>755.9284824513312</v>
+        <v>362.9861443858555</v>
       </c>
       <c r="W14" t="n">
-        <v>755.9284824513312</v>
+        <v>362.9861443858555</v>
       </c>
       <c r="X14" t="n">
-        <v>755.9284824513312</v>
+        <v>362.9861443858555</v>
       </c>
       <c r="Y14" t="n">
-        <v>755.9284824513312</v>
+        <v>362.9861443858555</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>627.0542520461087</v>
+        <v>189.5715989301536</v>
       </c>
       <c r="C15" t="n">
-        <v>452.6012227649817</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="D15" t="n">
-        <v>303.6668131037304</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="E15" t="n">
-        <v>303.6668131037304</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="F15" t="n">
-        <v>303.6668131037304</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="G15" t="n">
-        <v>166.1303560761447</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="H15" t="n">
-        <v>64.29630466941218</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="I15" t="n">
         <v>15.11856964902663</v>
       </c>
       <c r="J15" t="n">
-        <v>16.96051594049223</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="K15" t="n">
-        <v>69.52379439613092</v>
+        <v>69.52379439613127</v>
       </c>
       <c r="L15" t="n">
-        <v>186.5241501463471</v>
+        <v>186.5241501463474</v>
       </c>
       <c r="M15" t="n">
-        <v>342.4149149288551</v>
+        <v>342.4149149288555</v>
       </c>
       <c r="N15" t="n">
-        <v>516.8402893034556</v>
+        <v>516.840289303456</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1856348946408</v>
+        <v>654.1856348946411</v>
       </c>
       <c r="P15" t="n">
-        <v>745.0843170678467</v>
+        <v>745.084317067847</v>
       </c>
       <c r="Q15" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513315</v>
       </c>
       <c r="R15" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513315</v>
       </c>
       <c r="S15" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513315</v>
       </c>
       <c r="T15" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513315</v>
       </c>
       <c r="U15" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513315</v>
       </c>
       <c r="V15" t="n">
-        <v>627.0542520461087</v>
+        <v>755.9284824513315</v>
       </c>
       <c r="W15" t="n">
-        <v>627.0542520461087</v>
+        <v>571.3536607742606</v>
       </c>
       <c r="X15" t="n">
-        <v>627.0542520461087</v>
+        <v>380.4626298522071</v>
       </c>
       <c r="Y15" t="n">
-        <v>627.0542520461087</v>
+        <v>189.5715989301536</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.11856964902663</v>
+        <v>464.8848112433971</v>
       </c>
       <c r="C16" t="n">
-        <v>15.11856964902663</v>
+        <v>464.8848112433971</v>
       </c>
       <c r="D16" t="n">
-        <v>15.11856964902663</v>
+        <v>464.8848112433971</v>
       </c>
       <c r="E16" t="n">
-        <v>15.11856964902663</v>
+        <v>316.9717176610039</v>
       </c>
       <c r="F16" t="n">
-        <v>15.11856964902663</v>
+        <v>170.0817701630936</v>
       </c>
       <c r="G16" t="n">
-        <v>15.11856964902663</v>
+        <v>170.0817701630936</v>
       </c>
       <c r="H16" t="n">
         <v>15.11856964902663</v>
@@ -5448,40 +5448,40 @@
         <v>375.4312343433725</v>
       </c>
       <c r="N16" t="n">
-        <v>562.5235337500769</v>
+        <v>562.5235337500771</v>
       </c>
       <c r="O16" t="n">
-        <v>725.5781230835408</v>
+        <v>725.5781230835411</v>
       </c>
       <c r="P16" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513315</v>
       </c>
       <c r="Q16" t="n">
-        <v>755.9284824513312</v>
+        <v>752.7428718774424</v>
       </c>
       <c r="R16" t="n">
-        <v>755.9284824513312</v>
+        <v>752.7428718774424</v>
       </c>
       <c r="S16" t="n">
-        <v>565.0374515292779</v>
+        <v>561.851840955389</v>
       </c>
       <c r="T16" t="n">
-        <v>374.1464206072245</v>
+        <v>561.851840955389</v>
       </c>
       <c r="U16" t="n">
-        <v>206.00960057108</v>
+        <v>464.8848112433971</v>
       </c>
       <c r="V16" t="n">
-        <v>15.11856964902663</v>
+        <v>464.8848112433971</v>
       </c>
       <c r="W16" t="n">
-        <v>15.11856964902663</v>
+        <v>464.8848112433971</v>
       </c>
       <c r="X16" t="n">
-        <v>15.11856964902663</v>
+        <v>464.8848112433971</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.11856964902663</v>
+        <v>464.8848112433971</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>755.9284824513314</v>
+        <v>206.0096005710799</v>
       </c>
       <c r="C17" t="n">
-        <v>565.0374515292781</v>
+        <v>206.0096005710799</v>
       </c>
       <c r="D17" t="n">
-        <v>374.1464206072247</v>
+        <v>206.0096005710799</v>
       </c>
       <c r="E17" t="n">
-        <v>183.2553896851713</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="F17" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="G17" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="H17" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="I17" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="J17" t="n">
-        <v>21.57376286149804</v>
+        <v>21.57376286149798</v>
       </c>
       <c r="K17" t="n">
-        <v>81.98694239675376</v>
+        <v>81.98694239675336</v>
       </c>
       <c r="L17" t="n">
-        <v>193.8365955669366</v>
+        <v>193.836595566936</v>
       </c>
       <c r="M17" t="n">
-        <v>349.9603232838</v>
+        <v>349.9603232837994</v>
       </c>
       <c r="N17" t="n">
-        <v>513.2241045162874</v>
+        <v>513.2241045162867</v>
       </c>
       <c r="O17" t="n">
-        <v>654.0542022708985</v>
+        <v>654.0542022708978</v>
       </c>
       <c r="P17" t="n">
-        <v>739.7484316260391</v>
+        <v>739.7484316260386</v>
       </c>
       <c r="Q17" t="n">
-        <v>755.9284824513314</v>
+        <v>755.928482451331</v>
       </c>
       <c r="R17" t="n">
-        <v>755.9284824513314</v>
+        <v>744.7682062299618</v>
       </c>
       <c r="S17" t="n">
-        <v>755.9284824513314</v>
+        <v>744.7682062299618</v>
       </c>
       <c r="T17" t="n">
-        <v>755.9284824513314</v>
+        <v>587.7916624151865</v>
       </c>
       <c r="U17" t="n">
-        <v>755.9284824513314</v>
+        <v>587.7916624151865</v>
       </c>
       <c r="V17" t="n">
-        <v>755.9284824513314</v>
+        <v>396.9006314931332</v>
       </c>
       <c r="W17" t="n">
-        <v>755.9284824513314</v>
+        <v>206.0096005710799</v>
       </c>
       <c r="X17" t="n">
-        <v>755.9284824513314</v>
+        <v>206.0096005710799</v>
       </c>
       <c r="Y17" t="n">
-        <v>755.9284824513314</v>
+        <v>206.0096005710799</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>195.9000249300307</v>
+        <v>374.1464206072243</v>
       </c>
       <c r="C18" t="n">
-        <v>195.9000249300307</v>
+        <v>374.1464206072243</v>
       </c>
       <c r="D18" t="n">
-        <v>195.9000249300307</v>
+        <v>374.1464206072243</v>
       </c>
       <c r="E18" t="n">
-        <v>195.9000249300307</v>
+        <v>374.1464206072243</v>
       </c>
       <c r="F18" t="n">
-        <v>195.9000249300307</v>
+        <v>227.6118626341093</v>
       </c>
       <c r="G18" t="n">
-        <v>58.36356790244494</v>
+        <v>90.07540560652359</v>
       </c>
       <c r="H18" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="I18" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="J18" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="K18" t="n">
-        <v>69.52379439613115</v>
+        <v>69.5237943961307</v>
       </c>
       <c r="L18" t="n">
-        <v>186.5241501463473</v>
+        <v>186.5241501463469</v>
       </c>
       <c r="M18" t="n">
-        <v>342.4149149288554</v>
+        <v>342.4149149288549</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8402893034558</v>
+        <v>516.8402893034554</v>
       </c>
       <c r="O18" t="n">
-        <v>654.185634894641</v>
+        <v>654.1856348946405</v>
       </c>
       <c r="P18" t="n">
-        <v>745.0843170678469</v>
+        <v>745.0843170678464</v>
       </c>
       <c r="Q18" t="n">
-        <v>755.9284824513314</v>
+        <v>755.928482451331</v>
       </c>
       <c r="R18" t="n">
-        <v>728.9145623287413</v>
+        <v>755.928482451331</v>
       </c>
       <c r="S18" t="n">
-        <v>577.6820867741375</v>
+        <v>755.928482451331</v>
       </c>
       <c r="T18" t="n">
-        <v>577.6820867741375</v>
+        <v>755.928482451331</v>
       </c>
       <c r="U18" t="n">
-        <v>386.7910558520841</v>
+        <v>755.928482451331</v>
       </c>
       <c r="V18" t="n">
-        <v>195.9000249300307</v>
+        <v>565.0374515292776</v>
       </c>
       <c r="W18" t="n">
-        <v>195.9000249300307</v>
+        <v>374.1464206072243</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9000249300307</v>
+        <v>374.1464206072243</v>
       </c>
       <c r="Y18" t="n">
-        <v>195.9000249300307</v>
+        <v>374.1464206072243</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.2553896851713</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="C19" t="n">
-        <v>183.2553896851713</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="D19" t="n">
-        <v>33.13875027283555</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="E19" t="n">
-        <v>33.13875027283555</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="F19" t="n">
-        <v>33.13875027283555</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="G19" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="H19" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="I19" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="J19" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="K19" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="L19" t="n">
         <v>188.338934936668</v>
       </c>
       <c r="M19" t="n">
-        <v>375.4312343433725</v>
+        <v>375.4312343433724</v>
       </c>
       <c r="N19" t="n">
-        <v>562.523533750077</v>
+        <v>562.5235337500768</v>
       </c>
       <c r="O19" t="n">
-        <v>725.578123083541</v>
+        <v>725.5781230835407</v>
       </c>
       <c r="P19" t="n">
-        <v>755.9284824513314</v>
+        <v>755.928482451331</v>
       </c>
       <c r="Q19" t="n">
-        <v>755.9284824513314</v>
+        <v>755.928482451331</v>
       </c>
       <c r="R19" t="n">
-        <v>755.9284824513314</v>
+        <v>755.928482451331</v>
       </c>
       <c r="S19" t="n">
-        <v>755.9284824513314</v>
+        <v>565.0374515292776</v>
       </c>
       <c r="T19" t="n">
-        <v>565.0374515292781</v>
+        <v>374.1464206072243</v>
       </c>
       <c r="U19" t="n">
-        <v>565.0374515292781</v>
+        <v>183.2553896851711</v>
       </c>
       <c r="V19" t="n">
-        <v>374.1464206072247</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="W19" t="n">
-        <v>374.1464206072247</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="X19" t="n">
-        <v>374.1464206072247</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="Y19" t="n">
-        <v>183.2553896851713</v>
+        <v>15.11856964902662</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.9006314931335</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="C20" t="n">
-        <v>396.9006314931335</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="D20" t="n">
-        <v>396.9006314931335</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="E20" t="n">
-        <v>206.00960057108</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="F20" t="n">
         <v>206.00960057108</v>
@@ -5752,52 +5752,52 @@
         <v>15.11856964902663</v>
       </c>
       <c r="J20" t="n">
-        <v>21.57376286149802</v>
+        <v>21.57376286149804</v>
       </c>
       <c r="K20" t="n">
         <v>81.98694239675342</v>
       </c>
       <c r="L20" t="n">
-        <v>193.8365955669363</v>
+        <v>193.8365955669362</v>
       </c>
       <c r="M20" t="n">
-        <v>349.9603232837998</v>
+        <v>349.9603232837997</v>
       </c>
       <c r="N20" t="n">
-        <v>513.2241045162871</v>
+        <v>513.2241045162868</v>
       </c>
       <c r="O20" t="n">
-        <v>654.0542022708981</v>
+        <v>654.054202270898</v>
       </c>
       <c r="P20" t="n">
-        <v>739.7484316260391</v>
+        <v>739.7484316260388</v>
       </c>
       <c r="Q20" t="n">
-        <v>755.9284824513314</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="R20" t="n">
-        <v>755.9284824513314</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="S20" t="n">
-        <v>755.9284824513314</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="T20" t="n">
-        <v>565.0374515292781</v>
+        <v>565.0374515292779</v>
       </c>
       <c r="U20" t="n">
-        <v>565.0374515292781</v>
+        <v>565.0374515292779</v>
       </c>
       <c r="V20" t="n">
-        <v>565.0374515292781</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="W20" t="n">
-        <v>565.0374515292781</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="X20" t="n">
-        <v>565.0374515292781</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="Y20" t="n">
-        <v>565.0374515292781</v>
+        <v>374.1464206072245</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.11856964902663</v>
+        <v>565.0374515292779</v>
       </c>
       <c r="C21" t="n">
-        <v>15.11856964902663</v>
+        <v>390.5844222481509</v>
       </c>
       <c r="D21" t="n">
-        <v>15.11856964902663</v>
+        <v>311.8924816820679</v>
       </c>
       <c r="E21" t="n">
-        <v>15.11856964902663</v>
+        <v>152.6550266766124</v>
       </c>
       <c r="F21" t="n">
-        <v>15.11856964902663</v>
+        <v>152.6550266766124</v>
       </c>
       <c r="G21" t="n">
         <v>15.11856964902663</v>
@@ -5852,31 +5852,31 @@
         <v>743.2423707763811</v>
       </c>
       <c r="Q21" t="n">
-        <v>755.9284824513314</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="R21" t="n">
-        <v>755.9284824513314</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="S21" t="n">
-        <v>755.9284824513314</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="T21" t="n">
-        <v>755.9284824513314</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="U21" t="n">
-        <v>755.9284824513314</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="V21" t="n">
-        <v>755.9284824513314</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="W21" t="n">
-        <v>565.1159685132016</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="X21" t="n">
-        <v>374.2249375911481</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="Y21" t="n">
-        <v>183.3339066690947</v>
+        <v>565.0374515292779</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.0944070472026</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.1582241192957</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="D22" t="n">
-        <v>252.04158470696</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="E22" t="n">
-        <v>104.1284911245669</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="F22" t="n">
-        <v>15.11856964902663</v>
+        <v>227.2564731093142</v>
       </c>
       <c r="G22" t="n">
-        <v>15.11856964902663</v>
+        <v>142.0268781447988</v>
       </c>
       <c r="H22" t="n">
-        <v>15.11856964902663</v>
+        <v>142.0268781447988</v>
       </c>
       <c r="I22" t="n">
         <v>15.11856964902663</v>
@@ -5913,49 +5913,49 @@
         <v>15.11856964902663</v>
       </c>
       <c r="K22" t="n">
-        <v>15.11856964902663</v>
+        <v>107.0916914632739</v>
       </c>
       <c r="L22" t="n">
-        <v>188.338934936668</v>
+        <v>280.3120567509152</v>
       </c>
       <c r="M22" t="n">
-        <v>375.4312343433725</v>
+        <v>467.4043561576198</v>
       </c>
       <c r="N22" t="n">
-        <v>562.523533750077</v>
+        <v>592.8738931178673</v>
       </c>
       <c r="O22" t="n">
-        <v>725.578123083541</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="P22" t="n">
-        <v>755.9284824513314</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="Q22" t="n">
-        <v>752.7428718774423</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="R22" t="n">
-        <v>752.7428718774423</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="S22" t="n">
-        <v>752.7428718774423</v>
+        <v>565.0374515292779</v>
       </c>
       <c r="T22" t="n">
-        <v>752.7428718774423</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="U22" t="n">
-        <v>752.7428718774423</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="V22" t="n">
-        <v>752.7428718774423</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="W22" t="n">
-        <v>752.7428718774423</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="X22" t="n">
-        <v>752.7428718774423</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="Y22" t="n">
-        <v>752.7428718774423</v>
+        <v>374.1464206072245</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>732.0618324797667</v>
+        <v>774.4622751500992</v>
       </c>
       <c r="C23" t="n">
-        <v>732.0618324797667</v>
+        <v>774.4622751500992</v>
       </c>
       <c r="D23" t="n">
-        <v>732.0618324797667</v>
+        <v>774.4622751500992</v>
       </c>
       <c r="E23" t="n">
-        <v>350.2797706356602</v>
+        <v>774.4622751500992</v>
       </c>
       <c r="F23" t="n">
-        <v>350.2797706356602</v>
+        <v>476.8221878202203</v>
       </c>
       <c r="G23" t="n">
-        <v>350.2797706356602</v>
+        <v>476.8221878202203</v>
       </c>
       <c r="H23" t="n">
-        <v>30.23713929805324</v>
+        <v>156.7795564826134</v>
       </c>
       <c r="I23" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="J23" t="n">
         <v>204.0979815308777</v>
       </c>
       <c r="K23" t="n">
-        <v>264.5111610661331</v>
+        <v>578.2825803442867</v>
       </c>
       <c r="L23" t="n">
-        <v>376.3608142363159</v>
+        <v>690.1322335144695</v>
       </c>
       <c r="M23" t="n">
-        <v>532.4845419531795</v>
+        <v>846.255961231333</v>
       </c>
       <c r="N23" t="n">
-        <v>906.6691407665884</v>
+        <v>1009.51974246382</v>
       </c>
       <c r="O23" t="n">
-        <v>1047.499238521199</v>
+        <v>1150.349840218432</v>
       </c>
       <c r="P23" t="n">
-        <v>1421.683837334608</v>
+        <v>1495.67691407737</v>
       </c>
       <c r="Q23" t="n">
         <v>1511.856964902662</v>
       </c>
       <c r="R23" t="n">
-        <v>1511.856964902662</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="S23" t="n">
-        <v>1487.309652584953</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="T23" t="n">
-        <v>1487.309652584953</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="U23" t="n">
-        <v>1487.309652584953</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="V23" t="n">
-        <v>1487.309652584953</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="W23" t="n">
-        <v>1487.309652584953</v>
+        <v>1147.928033411179</v>
       </c>
       <c r="X23" t="n">
-        <v>1113.843894323873</v>
+        <v>774.4622751500992</v>
       </c>
       <c r="Y23" t="n">
-        <v>1113.843894323873</v>
+        <v>774.4622751500992</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>897.6140276240747</v>
+        <v>204.6901685791803</v>
       </c>
       <c r="C24" t="n">
-        <v>723.1609983429477</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="D24" t="n">
-        <v>574.2265886816964</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="E24" t="n">
-        <v>414.9891336762409</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="F24" t="n">
-        <v>268.4545757031259</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="G24" t="n">
-        <v>130.9181186755402</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="H24" t="n">
-        <v>79.41487431843879</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="I24" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="J24" t="n">
         <v>140.0940861829126</v>
       </c>
       <c r="K24" t="n">
-        <v>454.4779492810042</v>
+        <v>192.6573646385513</v>
       </c>
       <c r="L24" t="n">
-        <v>571.4783050312203</v>
+        <v>566.8419634519603</v>
       </c>
       <c r="M24" t="n">
-        <v>727.3690698137284</v>
+        <v>722.7327282344684</v>
       </c>
       <c r="N24" t="n">
-        <v>901.794444188329</v>
+        <v>897.1581026090689</v>
       </c>
       <c r="O24" t="n">
-        <v>1039.139789779514</v>
+        <v>1126.828200705769</v>
       </c>
       <c r="P24" t="n">
-        <v>1293.036284660687</v>
+        <v>1501.012799519178</v>
       </c>
       <c r="Q24" t="n">
         <v>1511.856964902662</v>
       </c>
       <c r="R24" t="n">
-        <v>1484.843044780072</v>
+        <v>1495.572762597096</v>
       </c>
       <c r="S24" t="n">
-        <v>1333.610569225468</v>
+        <v>1495.572762597096</v>
       </c>
       <c r="T24" t="n">
-        <v>1333.610569225468</v>
+        <v>1298.200310720007</v>
       </c>
       <c r="U24" t="n">
-        <v>1105.465527829607</v>
+        <v>1070.055269324146</v>
       </c>
       <c r="V24" t="n">
-        <v>1105.465527829607</v>
+        <v>834.9031610924037</v>
       </c>
       <c r="W24" t="n">
-        <v>1105.465527829607</v>
+        <v>580.6658043642021</v>
       </c>
       <c r="X24" t="n">
-        <v>897.6140276240747</v>
+        <v>580.6658043642021</v>
       </c>
       <c r="Y24" t="n">
-        <v>897.6140276240747</v>
+        <v>372.9055055992483</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>269.8790383616764</v>
+        <v>345.813626397228</v>
       </c>
       <c r="C25" t="n">
-        <v>269.8790383616764</v>
+        <v>345.813626397228</v>
       </c>
       <c r="D25" t="n">
-        <v>119.7623989493407</v>
+        <v>345.813626397228</v>
       </c>
       <c r="E25" t="n">
-        <v>119.7623989493407</v>
+        <v>345.813626397228</v>
       </c>
       <c r="F25" t="n">
-        <v>119.7623989493407</v>
+        <v>198.9236788993177</v>
       </c>
       <c r="G25" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="H25" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="I25" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="J25" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="K25" t="n">
         <v>122.2102611123005</v>
@@ -6174,25 +6174,25 @@
         <v>961.382221683846</v>
       </c>
       <c r="S25" t="n">
-        <v>752.5530774655806</v>
+        <v>961.382221683846</v>
       </c>
       <c r="T25" t="n">
-        <v>752.5530774655806</v>
+        <v>735.4125117196249</v>
       </c>
       <c r="U25" t="n">
-        <v>752.5530774655806</v>
+        <v>600.4981146031149</v>
       </c>
       <c r="V25" t="n">
-        <v>497.8685892596937</v>
+        <v>345.813626397228</v>
       </c>
       <c r="W25" t="n">
-        <v>497.8685892596937</v>
+        <v>345.813626397228</v>
       </c>
       <c r="X25" t="n">
-        <v>269.8790383616764</v>
+        <v>345.813626397228</v>
       </c>
       <c r="Y25" t="n">
-        <v>269.8790383616764</v>
+        <v>345.813626397228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1130.074903058555</v>
+        <v>576.8689764478695</v>
       </c>
       <c r="C26" t="n">
-        <v>1130.074903058555</v>
+        <v>576.8689764478695</v>
       </c>
       <c r="D26" t="n">
-        <v>1130.074903058555</v>
+        <v>576.8689764478695</v>
       </c>
       <c r="E26" t="n">
-        <v>748.2928412144488</v>
+        <v>195.0869146037628</v>
       </c>
       <c r="F26" t="n">
-        <v>748.2928412144488</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="G26" t="n">
-        <v>366.5107793703422</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="H26" t="n">
-        <v>46.46814803273526</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="I26" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="J26" t="n">
-        <v>204.0979815308777</v>
+        <v>36.69233251052464</v>
       </c>
       <c r="K26" t="n">
-        <v>264.5111610661331</v>
+        <v>410.8769313239336</v>
       </c>
       <c r="L26" t="n">
-        <v>443.2138374634537</v>
+        <v>522.7265844941164</v>
       </c>
       <c r="M26" t="n">
-        <v>817.3984362768626</v>
+        <v>678.85031221098</v>
       </c>
       <c r="N26" t="n">
-        <v>980.6622175093499</v>
+        <v>842.1140934434673</v>
       </c>
       <c r="O26" t="n">
-        <v>1121.492315263961</v>
+        <v>982.9441911980783</v>
       </c>
       <c r="P26" t="n">
-        <v>1495.67691407737</v>
+        <v>1285.485073324064</v>
       </c>
       <c r="Q26" t="n">
         <v>1511.856964902662</v>
       </c>
       <c r="R26" t="n">
-        <v>1511.856964902662</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="S26" t="n">
-        <v>1511.856964902662</v>
+        <v>1340.433100136083</v>
       </c>
       <c r="T26" t="n">
-        <v>1511.856964902662</v>
+        <v>1340.433100136083</v>
       </c>
       <c r="U26" t="n">
-        <v>1511.856964902662</v>
+        <v>1340.433100136083</v>
       </c>
       <c r="V26" t="n">
-        <v>1511.856964902662</v>
+        <v>1340.433100136083</v>
       </c>
       <c r="W26" t="n">
-        <v>1511.856964902662</v>
+        <v>1340.433100136083</v>
       </c>
       <c r="X26" t="n">
-        <v>1511.856964902662</v>
+        <v>1340.433100136083</v>
       </c>
       <c r="Y26" t="n">
-        <v>1511.856964902662</v>
+        <v>958.6510382919762</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>493.2384120338839</v>
+        <v>204.6901685791803</v>
       </c>
       <c r="C27" t="n">
-        <v>318.785382752757</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="D27" t="n">
-        <v>318.785382752757</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="E27" t="n">
-        <v>318.785382752757</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="F27" t="n">
-        <v>318.785382752757</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="G27" t="n">
-        <v>181.2489257251713</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="H27" t="n">
-        <v>79.41487431843879</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="I27" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="J27" t="n">
         <v>140.0940861829126</v>
       </c>
       <c r="K27" t="n">
-        <v>192.6573646385513</v>
+        <v>454.4779492810042</v>
       </c>
       <c r="L27" t="n">
-        <v>566.8419634519603</v>
+        <v>659.1667159574752</v>
       </c>
       <c r="M27" t="n">
-        <v>861.5041441579624</v>
+        <v>815.0574807399832</v>
       </c>
       <c r="N27" t="n">
-        <v>1035.929518532563</v>
+        <v>989.4828551145838</v>
       </c>
       <c r="O27" t="n">
-        <v>1410.114117345972</v>
+        <v>1126.828200705769</v>
       </c>
       <c r="P27" t="n">
         <v>1501.012799519178</v>
@@ -6329,28 +6329,28 @@
         <v>1511.856964902662</v>
       </c>
       <c r="R27" t="n">
-        <v>1511.856964902662</v>
+        <v>1484.843044780072</v>
       </c>
       <c r="S27" t="n">
-        <v>1511.856964902662</v>
+        <v>1484.843044780072</v>
       </c>
       <c r="T27" t="n">
-        <v>1511.856964902662</v>
+        <v>1287.470592902984</v>
       </c>
       <c r="U27" t="n">
-        <v>1283.711923506801</v>
+        <v>1109.691432509611</v>
       </c>
       <c r="V27" t="n">
-        <v>1048.559815275059</v>
+        <v>874.5393242778687</v>
       </c>
       <c r="W27" t="n">
-        <v>794.322458546857</v>
+        <v>620.301967549667</v>
       </c>
       <c r="X27" t="n">
-        <v>586.4709583413241</v>
+        <v>412.4504673441342</v>
       </c>
       <c r="Y27" t="n">
-        <v>493.2384120338839</v>
+        <v>204.6901685791803</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.23713929805324</v>
+        <v>497.203055220689</v>
       </c>
       <c r="C28" t="n">
-        <v>30.23713929805324</v>
+        <v>328.2668722927821</v>
       </c>
       <c r="D28" t="n">
-        <v>30.23713929805324</v>
+        <v>178.1502328804464</v>
       </c>
       <c r="E28" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="F28" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="G28" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="H28" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="I28" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="J28" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="K28" t="n">
         <v>122.2102611123005</v>
@@ -6414,22 +6414,22 @@
         <v>961.382221683846</v>
       </c>
       <c r="T28" t="n">
-        <v>755.9872623711404</v>
+        <v>961.382221683846</v>
       </c>
       <c r="U28" t="n">
-        <v>755.9872623711404</v>
+        <v>961.382221683846</v>
       </c>
       <c r="V28" t="n">
-        <v>501.3027741652536</v>
+        <v>961.382221683846</v>
       </c>
       <c r="W28" t="n">
-        <v>211.885604128293</v>
+        <v>678.8515200509287</v>
       </c>
       <c r="X28" t="n">
-        <v>211.885604128293</v>
+        <v>678.8515200509287</v>
       </c>
       <c r="Y28" t="n">
-        <v>211.885604128293</v>
+        <v>678.8515200509287</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>732.0618324797667</v>
+        <v>871.1495914837826</v>
       </c>
       <c r="C29" t="n">
-        <v>732.0618324797667</v>
+        <v>871.1495914837826</v>
       </c>
       <c r="D29" t="n">
-        <v>732.0618324797667</v>
+        <v>871.1495914837826</v>
       </c>
       <c r="E29" t="n">
-        <v>732.0618324797667</v>
+        <v>489.3675296396759</v>
       </c>
       <c r="F29" t="n">
-        <v>350.2797706356602</v>
+        <v>156.7795564826134</v>
       </c>
       <c r="G29" t="n">
-        <v>350.2797706356602</v>
+        <v>156.7795564826134</v>
       </c>
       <c r="H29" t="n">
-        <v>30.23713929805324</v>
+        <v>156.7795564826134</v>
       </c>
       <c r="I29" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="J29" t="n">
-        <v>36.69233251052463</v>
+        <v>36.69233251052464</v>
       </c>
       <c r="K29" t="n">
-        <v>97.10551204578005</v>
+        <v>339.2332146365107</v>
       </c>
       <c r="L29" t="n">
-        <v>287.4288882820022</v>
+        <v>451.0828678066936</v>
       </c>
       <c r="M29" t="n">
-        <v>661.6134870954111</v>
+        <v>607.2065955235571</v>
       </c>
       <c r="N29" t="n">
-        <v>1035.79808590882</v>
+        <v>770.4703767560444</v>
       </c>
       <c r="O29" t="n">
-        <v>1409.982684722229</v>
+        <v>911.3004745106555</v>
       </c>
       <c r="P29" t="n">
-        <v>1495.67691407737</v>
+        <v>1285.485073324064</v>
       </c>
       <c r="Q29" t="n">
         <v>1511.856964902662</v>
@@ -6490,25 +6490,25 @@
         <v>1500.696688681293</v>
       </c>
       <c r="S29" t="n">
-        <v>1340.433100136082</v>
+        <v>1340.433100136083</v>
       </c>
       <c r="T29" t="n">
         <v>1124.855507973228</v>
       </c>
       <c r="U29" t="n">
-        <v>871.1495914837822</v>
+        <v>871.1495914837826</v>
       </c>
       <c r="V29" t="n">
-        <v>732.0618324797667</v>
+        <v>871.1495914837826</v>
       </c>
       <c r="W29" t="n">
-        <v>732.0618324797667</v>
+        <v>871.1495914837826</v>
       </c>
       <c r="X29" t="n">
-        <v>732.0618324797667</v>
+        <v>871.1495914837826</v>
       </c>
       <c r="Y29" t="n">
-        <v>732.0618324797667</v>
+        <v>871.1495914837826</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>852.3956560918389</v>
+        <v>225.9494322915538</v>
       </c>
       <c r="C30" t="n">
-        <v>677.9426268107119</v>
+        <v>225.9494322915538</v>
       </c>
       <c r="D30" t="n">
-        <v>624.5573957313275</v>
+        <v>225.9494322915538</v>
       </c>
       <c r="E30" t="n">
-        <v>465.319940725872</v>
+        <v>225.9494322915538</v>
       </c>
       <c r="F30" t="n">
-        <v>318.785382752757</v>
+        <v>79.41487431843881</v>
       </c>
       <c r="G30" t="n">
-        <v>181.2489257251713</v>
+        <v>79.41487431843881</v>
       </c>
       <c r="H30" t="n">
-        <v>79.41487431843879</v>
+        <v>79.41487431843881</v>
       </c>
       <c r="I30" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="J30" t="n">
         <v>140.0940861829126</v>
       </c>
       <c r="K30" t="n">
-        <v>360.2915189257785</v>
+        <v>192.6573646385513</v>
       </c>
       <c r="L30" t="n">
-        <v>734.4761177391874</v>
+        <v>309.6577203887675</v>
       </c>
       <c r="M30" t="n">
-        <v>890.3668825216955</v>
+        <v>683.8423192021764</v>
       </c>
       <c r="N30" t="n">
-        <v>1064.792256896296</v>
+        <v>1058.026918015585</v>
       </c>
       <c r="O30" t="n">
-        <v>1202.137602487481</v>
+        <v>1195.372263606771</v>
       </c>
       <c r="P30" t="n">
         <v>1293.036284660687</v>
@@ -6566,28 +6566,28 @@
         <v>1511.856964902662</v>
       </c>
       <c r="R30" t="n">
-        <v>1511.856964902662</v>
+        <v>1484.843044780072</v>
       </c>
       <c r="S30" t="n">
-        <v>1511.856964902662</v>
+        <v>1484.843044780072</v>
       </c>
       <c r="T30" t="n">
-        <v>1314.484513025573</v>
+        <v>1484.843044780072</v>
       </c>
       <c r="U30" t="n">
-        <v>1314.484513025573</v>
+        <v>1299.166033242053</v>
       </c>
       <c r="V30" t="n">
-        <v>1314.484513025573</v>
+        <v>1064.01392501031</v>
       </c>
       <c r="W30" t="n">
-        <v>1060.247156297372</v>
+        <v>809.7765682821087</v>
       </c>
       <c r="X30" t="n">
-        <v>852.3956560918389</v>
+        <v>601.9250680765758</v>
       </c>
       <c r="Y30" t="n">
-        <v>852.3956560918389</v>
+        <v>394.1647693116219</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>503.5123766347838</v>
+        <v>497.203055220689</v>
       </c>
       <c r="C31" t="n">
-        <v>503.5123766347838</v>
+        <v>328.2668722927821</v>
       </c>
       <c r="D31" t="n">
-        <v>503.5123766347838</v>
+        <v>178.1502328804464</v>
       </c>
       <c r="E31" t="n">
-        <v>355.5992830523907</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7093355544803</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7093355544803</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="H31" t="n">
-        <v>53.74613504041338</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="I31" t="n">
-        <v>53.74613504041338</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="J31" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="K31" t="n">
         <v>122.2102611123005</v>
@@ -6645,28 +6645,28 @@
         <v>961.382221683846</v>
       </c>
       <c r="R31" t="n">
-        <v>827.3209015394316</v>
+        <v>899.6440991944588</v>
       </c>
       <c r="S31" t="n">
-        <v>827.3209015394316</v>
+        <v>899.6440991944588</v>
       </c>
       <c r="T31" t="n">
-        <v>601.3511915752106</v>
+        <v>899.6440991944588</v>
       </c>
       <c r="U31" t="n">
-        <v>503.5123766347838</v>
+        <v>899.6440991944588</v>
       </c>
       <c r="V31" t="n">
-        <v>503.5123766347838</v>
+        <v>899.6440991944588</v>
       </c>
       <c r="W31" t="n">
-        <v>503.5123766347838</v>
+        <v>899.6440991944588</v>
       </c>
       <c r="X31" t="n">
-        <v>503.5123766347838</v>
+        <v>899.6440991944588</v>
       </c>
       <c r="Y31" t="n">
-        <v>503.5123766347838</v>
+        <v>678.8515200509287</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.827082953369</v>
+        <v>1139.247416689322</v>
       </c>
       <c r="C32" t="n">
-        <v>374.827082953369</v>
+        <v>770.2848997489104</v>
       </c>
       <c r="D32" t="n">
-        <v>374.827082953369</v>
+        <v>412.0192011421599</v>
       </c>
       <c r="E32" t="n">
-        <v>374.827082953369</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="F32" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="G32" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="H32" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="I32" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="J32" t="n">
         <v>204.0979815308777</v>
@@ -6706,46 +6706,46 @@
         <v>264.5111610661331</v>
       </c>
       <c r="L32" t="n">
-        <v>376.3608142363159</v>
+        <v>638.695759879542</v>
       </c>
       <c r="M32" t="n">
-        <v>532.4845419531795</v>
+        <v>794.8194875964056</v>
       </c>
       <c r="N32" t="n">
-        <v>695.7483231856668</v>
+        <v>958.0832688288929</v>
       </c>
       <c r="O32" t="n">
-        <v>911.3004745106552</v>
+        <v>1121.492315263961</v>
       </c>
       <c r="P32" t="n">
-        <v>1285.485073324064</v>
+        <v>1495.67691407737</v>
       </c>
       <c r="Q32" t="n">
         <v>1511.856964902662</v>
       </c>
       <c r="R32" t="n">
-        <v>1511.856964902662</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="S32" t="n">
-        <v>1511.856964902662</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="T32" t="n">
-        <v>1511.856964902662</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="U32" t="n">
-        <v>1511.856964902662</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="V32" t="n">
-        <v>1511.856964902662</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="W32" t="n">
-        <v>1511.856964902662</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="X32" t="n">
-        <v>1138.391206641582</v>
+        <v>1500.696688681293</v>
       </c>
       <c r="Y32" t="n">
-        <v>756.6091447974757</v>
+        <v>1500.696688681293</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>917.6208809107829</v>
+        <v>342.226625606766</v>
       </c>
       <c r="C33" t="n">
-        <v>773.4918053925787</v>
+        <v>167.773596325639</v>
       </c>
       <c r="D33" t="n">
-        <v>624.5573957313275</v>
+        <v>167.773596325639</v>
       </c>
       <c r="E33" t="n">
-        <v>465.319940725872</v>
+        <v>167.773596325639</v>
       </c>
       <c r="F33" t="n">
-        <v>318.785382752757</v>
+        <v>167.773596325639</v>
       </c>
       <c r="G33" t="n">
-        <v>181.2489257251713</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="H33" t="n">
-        <v>79.41487431843879</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="I33" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="J33" t="n">
-        <v>30.23713929805324</v>
+        <v>140.0940861829126</v>
       </c>
       <c r="K33" t="n">
-        <v>82.80041775369193</v>
+        <v>454.4779492810042</v>
       </c>
       <c r="L33" t="n">
-        <v>199.8007735039081</v>
+        <v>828.6625480944131</v>
       </c>
       <c r="M33" t="n">
-        <v>407.321741442684</v>
+        <v>984.5533128769212</v>
       </c>
       <c r="N33" t="n">
-        <v>781.5063402560929</v>
+        <v>1272.768771754787</v>
       </c>
       <c r="O33" t="n">
-        <v>918.8516858472781</v>
+        <v>1410.114117345972</v>
       </c>
       <c r="P33" t="n">
-        <v>1293.036284660687</v>
+        <v>1501.012799519178</v>
       </c>
       <c r="Q33" t="n">
         <v>1511.856964902662</v>
       </c>
       <c r="R33" t="n">
-        <v>1511.856964902662</v>
+        <v>1484.843044780072</v>
       </c>
       <c r="S33" t="n">
-        <v>1360.624489348058</v>
+        <v>1484.843044780072</v>
       </c>
       <c r="T33" t="n">
-        <v>1360.624489348058</v>
+        <v>1484.843044780072</v>
       </c>
       <c r="U33" t="n">
-        <v>1360.624489348058</v>
+        <v>1256.698003384211</v>
       </c>
       <c r="V33" t="n">
-        <v>1125.472381116316</v>
+        <v>1021.545895152469</v>
       </c>
       <c r="W33" t="n">
-        <v>1125.472381116316</v>
+        <v>767.3085384242672</v>
       </c>
       <c r="X33" t="n">
-        <v>917.6208809107829</v>
+        <v>559.4570382187344</v>
       </c>
       <c r="Y33" t="n">
-        <v>917.6208809107829</v>
+        <v>351.6967394537805</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>669.0400877096376</v>
+        <v>526.5833675013596</v>
       </c>
       <c r="C34" t="n">
-        <v>669.0400877096376</v>
+        <v>526.5833675013596</v>
       </c>
       <c r="D34" t="n">
-        <v>669.0400877096376</v>
+        <v>493.7267199796211</v>
       </c>
       <c r="E34" t="n">
-        <v>651.1941311494272</v>
+        <v>345.813626397228</v>
       </c>
       <c r="F34" t="n">
-        <v>504.3041836515168</v>
+        <v>198.9236788993177</v>
       </c>
       <c r="G34" t="n">
-        <v>335.6176440502525</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="H34" t="n">
-        <v>180.6544435361856</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="I34" t="n">
-        <v>53.74613504041338</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="J34" t="n">
-        <v>30.23713929805324</v>
+        <v>30.23713929805325</v>
       </c>
       <c r="K34" t="n">
         <v>122.2102611123005</v>
@@ -6879,31 +6879,31 @@
         <v>961.382221683846</v>
       </c>
       <c r="Q34" t="n">
-        <v>958.1966111099568</v>
+        <v>961.382221683846</v>
       </c>
       <c r="R34" t="n">
-        <v>958.1966111099568</v>
+        <v>961.382221683846</v>
       </c>
       <c r="S34" t="n">
-        <v>958.1966111099568</v>
+        <v>752.5530774655806</v>
       </c>
       <c r="T34" t="n">
-        <v>958.1966111099568</v>
+        <v>526.5833675013596</v>
       </c>
       <c r="U34" t="n">
-        <v>669.0400877096376</v>
+        <v>526.5833675013596</v>
       </c>
       <c r="V34" t="n">
-        <v>669.0400877096376</v>
+        <v>526.5833675013596</v>
       </c>
       <c r="W34" t="n">
-        <v>669.0400877096376</v>
+        <v>526.5833675013596</v>
       </c>
       <c r="X34" t="n">
-        <v>669.0400877096376</v>
+        <v>526.5833675013596</v>
       </c>
       <c r="Y34" t="n">
-        <v>669.0400877096376</v>
+        <v>526.5833675013596</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>744.7682062299618</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="C35" t="n">
-        <v>553.8771753079086</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="D35" t="n">
-        <v>553.8771753079086</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="E35" t="n">
-        <v>553.8771753079086</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="F35" t="n">
-        <v>396.9006314931332</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="G35" t="n">
-        <v>206.0096005710799</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="H35" t="n">
         <v>15.11856964902662</v>
@@ -6940,49 +6940,49 @@
         <v>21.57376286149801</v>
       </c>
       <c r="K35" t="n">
-        <v>81.98694239675339</v>
+        <v>81.98694239675342</v>
       </c>
       <c r="L35" t="n">
-        <v>193.8365955669361</v>
+        <v>193.8365955669359</v>
       </c>
       <c r="M35" t="n">
-        <v>349.9603232837995</v>
+        <v>349.9603232837994</v>
       </c>
       <c r="N35" t="n">
-        <v>513.224104516287</v>
+        <v>513.2241045162867</v>
       </c>
       <c r="O35" t="n">
-        <v>654.054202270898</v>
+        <v>654.0542022708978</v>
       </c>
       <c r="P35" t="n">
-        <v>739.7484316260386</v>
+        <v>739.7484316260387</v>
       </c>
       <c r="Q35" t="n">
-        <v>755.928482451331</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="R35" t="n">
-        <v>744.7682062299618</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="S35" t="n">
-        <v>744.7682062299618</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="T35" t="n">
-        <v>744.7682062299618</v>
+        <v>565.0374515292777</v>
       </c>
       <c r="U35" t="n">
-        <v>744.7682062299618</v>
+        <v>374.1464206072244</v>
       </c>
       <c r="V35" t="n">
-        <v>744.7682062299618</v>
+        <v>374.1464206072244</v>
       </c>
       <c r="W35" t="n">
-        <v>744.7682062299618</v>
+        <v>374.1464206072244</v>
       </c>
       <c r="X35" t="n">
-        <v>744.7682062299618</v>
+        <v>374.1464206072244</v>
       </c>
       <c r="Y35" t="n">
-        <v>744.7682062299618</v>
+        <v>206.0096005710799</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>396.8221145092096</v>
+        <v>189.5715989301536</v>
       </c>
       <c r="C36" t="n">
-        <v>396.8221145092096</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="D36" t="n">
-        <v>396.8221145092096</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="E36" t="n">
-        <v>237.5846595037541</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="F36" t="n">
-        <v>91.05010153063907</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="G36" t="n">
-        <v>64.29630466941218</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="H36" t="n">
-        <v>64.29630466941218</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="I36" t="n">
         <v>15.11856964902662</v>
       </c>
       <c r="J36" t="n">
-        <v>15.11856964902662</v>
+        <v>16.96051594049212</v>
       </c>
       <c r="K36" t="n">
-        <v>67.68184810466532</v>
+        <v>69.52379439613081</v>
       </c>
       <c r="L36" t="n">
-        <v>184.6822038548815</v>
+        <v>186.524150146347</v>
       </c>
       <c r="M36" t="n">
-        <v>340.5729686373895</v>
+        <v>342.414914928855</v>
       </c>
       <c r="N36" t="n">
-        <v>514.9983430119901</v>
+        <v>516.8402893034555</v>
       </c>
       <c r="O36" t="n">
-        <v>652.3436886031752</v>
+        <v>654.1856348946407</v>
       </c>
       <c r="P36" t="n">
-        <v>743.2423707763811</v>
+        <v>745.0843170678465</v>
       </c>
       <c r="Q36" t="n">
-        <v>755.928482451331</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="R36" t="n">
-        <v>755.928482451331</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="S36" t="n">
-        <v>755.928482451331</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="T36" t="n">
-        <v>755.928482451331</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="U36" t="n">
-        <v>755.928482451331</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="V36" t="n">
-        <v>755.928482451331</v>
+        <v>565.0374515292777</v>
       </c>
       <c r="W36" t="n">
-        <v>755.928482451331</v>
+        <v>374.1464206072244</v>
       </c>
       <c r="X36" t="n">
-        <v>755.928482451331</v>
+        <v>189.5715989301536</v>
       </c>
       <c r="Y36" t="n">
-        <v>565.0374515292776</v>
+        <v>189.5715989301536</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.0755615004007</v>
+        <v>180.069779111282</v>
       </c>
       <c r="C37" t="n">
-        <v>636.0755615004007</v>
+        <v>180.069779111282</v>
       </c>
       <c r="D37" t="n">
-        <v>636.0755615004007</v>
+        <v>180.069779111282</v>
       </c>
       <c r="E37" t="n">
-        <v>636.0755615004007</v>
+        <v>180.069779111282</v>
       </c>
       <c r="F37" t="n">
-        <v>489.1856140024903</v>
+        <v>180.069779111282</v>
       </c>
       <c r="G37" t="n">
-        <v>320.4990744012259</v>
+        <v>38.62756539138675</v>
       </c>
       <c r="H37" t="n">
-        <v>165.5358738871589</v>
+        <v>38.62756539138675</v>
       </c>
       <c r="I37" t="n">
         <v>38.62756539138675</v>
@@ -7098,49 +7098,49 @@
         <v>15.11856964902662</v>
       </c>
       <c r="K37" t="n">
-        <v>107.0916914632739</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="L37" t="n">
-        <v>119.4621022247764</v>
+        <v>188.338934936668</v>
       </c>
       <c r="M37" t="n">
-        <v>289.7809062145225</v>
+        <v>289.7809062145226</v>
       </c>
       <c r="N37" t="n">
-        <v>476.8732056212269</v>
+        <v>476.873205621227</v>
       </c>
       <c r="O37" t="n">
-        <v>639.9277949546909</v>
+        <v>639.927794954691</v>
       </c>
       <c r="P37" t="n">
-        <v>755.928482451331</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="Q37" t="n">
-        <v>752.7428718774419</v>
+        <v>752.742871877442</v>
       </c>
       <c r="R37" t="n">
-        <v>636.0755615004007</v>
+        <v>752.742871877442</v>
       </c>
       <c r="S37" t="n">
-        <v>636.0755615004007</v>
+        <v>752.742871877442</v>
       </c>
       <c r="T37" t="n">
-        <v>636.0755615004007</v>
+        <v>561.8518409553886</v>
       </c>
       <c r="U37" t="n">
-        <v>636.0755615004007</v>
+        <v>370.9608100333353</v>
       </c>
       <c r="V37" t="n">
-        <v>636.0755615004007</v>
+        <v>370.9608100333353</v>
       </c>
       <c r="W37" t="n">
-        <v>636.0755615004007</v>
+        <v>180.069779111282</v>
       </c>
       <c r="X37" t="n">
-        <v>636.0755615004007</v>
+        <v>180.069779111282</v>
       </c>
       <c r="Y37" t="n">
-        <v>636.0755615004007</v>
+        <v>180.069779111282</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>744.7682062299621</v>
+        <v>213.882832062014</v>
       </c>
       <c r="C38" t="n">
-        <v>553.8771753079087</v>
+        <v>213.882832062014</v>
       </c>
       <c r="D38" t="n">
-        <v>553.8771753079087</v>
+        <v>213.882832062014</v>
       </c>
       <c r="E38" t="n">
-        <v>553.8771753079087</v>
+        <v>22.99180113996073</v>
       </c>
       <c r="F38" t="n">
-        <v>362.9861443858554</v>
+        <v>22.99180113996073</v>
       </c>
       <c r="G38" t="n">
-        <v>172.095113463802</v>
+        <v>22.99180113996073</v>
       </c>
       <c r="H38" t="n">
-        <v>141.6609868335868</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="I38" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="J38" t="n">
-        <v>21.57376286149793</v>
+        <v>21.57376286149801</v>
       </c>
       <c r="K38" t="n">
         <v>81.98694239675342</v>
@@ -7183,43 +7183,43 @@
         <v>193.8365955669363</v>
       </c>
       <c r="M38" t="n">
-        <v>349.9603232837997</v>
+        <v>349.9603232837998</v>
       </c>
       <c r="N38" t="n">
-        <v>513.2241045162868</v>
+        <v>513.2241045162871</v>
       </c>
       <c r="O38" t="n">
-        <v>654.0542022708979</v>
+        <v>654.0542022708981</v>
       </c>
       <c r="P38" t="n">
-        <v>739.7484316260388</v>
+        <v>739.7484316260387</v>
       </c>
       <c r="Q38" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="R38" t="n">
-        <v>744.7682062299621</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="S38" t="n">
-        <v>744.7682062299621</v>
+        <v>595.6648939061207</v>
       </c>
       <c r="T38" t="n">
-        <v>744.7682062299621</v>
+        <v>404.7738629840674</v>
       </c>
       <c r="U38" t="n">
-        <v>744.7682062299621</v>
+        <v>213.882832062014</v>
       </c>
       <c r="V38" t="n">
-        <v>744.7682062299621</v>
+        <v>213.882832062014</v>
       </c>
       <c r="W38" t="n">
-        <v>744.7682062299621</v>
+        <v>213.882832062014</v>
       </c>
       <c r="X38" t="n">
-        <v>744.7682062299621</v>
+        <v>213.882832062014</v>
       </c>
       <c r="Y38" t="n">
-        <v>744.7682062299621</v>
+        <v>213.882832062014</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.11856964902663</v>
+        <v>265.8870307170104</v>
       </c>
       <c r="C39" t="n">
-        <v>15.11856964902663</v>
+        <v>265.8870307170104</v>
       </c>
       <c r="D39" t="n">
-        <v>15.11856964902663</v>
+        <v>116.9526210557591</v>
       </c>
       <c r="E39" t="n">
-        <v>15.11856964902663</v>
+        <v>116.9526210557591</v>
       </c>
       <c r="F39" t="n">
-        <v>15.11856964902663</v>
+        <v>116.9526210557591</v>
       </c>
       <c r="G39" t="n">
-        <v>15.11856964902663</v>
+        <v>116.9526210557591</v>
       </c>
       <c r="H39" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="I39" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="J39" t="n">
-        <v>16.96051594049223</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="K39" t="n">
-        <v>69.52379439613092</v>
+        <v>69.52379439613081</v>
       </c>
       <c r="L39" t="n">
-        <v>186.5241501463471</v>
+        <v>186.524150146347</v>
       </c>
       <c r="M39" t="n">
-        <v>342.4149149288551</v>
+        <v>342.414914928855</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8402893034556</v>
+        <v>516.8402893034555</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1856348946408</v>
+        <v>654.1856348946407</v>
       </c>
       <c r="P39" t="n">
-        <v>745.0843170678467</v>
+        <v>745.0843170678465</v>
       </c>
       <c r="Q39" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="R39" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="S39" t="n">
-        <v>755.9284824513312</v>
+        <v>604.6960068967272</v>
       </c>
       <c r="T39" t="n">
-        <v>755.9284824513312</v>
+        <v>413.8049759746739</v>
       </c>
       <c r="U39" t="n">
-        <v>755.9284824513312</v>
+        <v>413.8049759746739</v>
       </c>
       <c r="V39" t="n">
-        <v>565.0374515292779</v>
+        <v>265.8870307170104</v>
       </c>
       <c r="W39" t="n">
-        <v>374.1464206072245</v>
+        <v>265.8870307170104</v>
       </c>
       <c r="X39" t="n">
-        <v>183.2553896851712</v>
+        <v>265.8870307170104</v>
       </c>
       <c r="Y39" t="n">
-        <v>15.11856964902663</v>
+        <v>265.8870307170104</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.00845896686769</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="C40" t="n">
-        <v>46.00845896686769</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="D40" t="n">
-        <v>46.00845896686769</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="E40" t="n">
-        <v>46.00845896686769</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="F40" t="n">
-        <v>46.00845896686769</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="G40" t="n">
-        <v>46.00845896686769</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="H40" t="n">
-        <v>46.00845896686769</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="I40" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="J40" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="K40" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="L40" t="n">
         <v>188.338934936668</v>
       </c>
       <c r="M40" t="n">
-        <v>289.7809062145227</v>
+        <v>375.4312343433724</v>
       </c>
       <c r="N40" t="n">
-        <v>476.8732056212272</v>
+        <v>562.5235337500769</v>
       </c>
       <c r="O40" t="n">
-        <v>639.9277949546911</v>
+        <v>725.5781230835408</v>
       </c>
       <c r="P40" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="Q40" t="n">
-        <v>752.7428718774421</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="R40" t="n">
-        <v>618.6815517330277</v>
+        <v>621.8671623069167</v>
       </c>
       <c r="S40" t="n">
-        <v>427.7905208109744</v>
+        <v>430.9761313848634</v>
       </c>
       <c r="T40" t="n">
-        <v>236.899489888921</v>
+        <v>240.0851004628101</v>
       </c>
       <c r="U40" t="n">
-        <v>236.899489888921</v>
+        <v>49.19406954075674</v>
       </c>
       <c r="V40" t="n">
-        <v>46.00845896686769</v>
+        <v>49.19406954075674</v>
       </c>
       <c r="W40" t="n">
-        <v>46.00845896686769</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="X40" t="n">
-        <v>46.00845896686769</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.00845896686769</v>
+        <v>15.11856964902662</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>584.5046176847517</v>
+        <v>396.9006314931332</v>
       </c>
       <c r="C41" t="n">
-        <v>584.5046176847517</v>
+        <v>396.9006314931332</v>
       </c>
       <c r="D41" t="n">
-        <v>584.5046176847517</v>
+        <v>206.0096005710799</v>
       </c>
       <c r="E41" t="n">
-        <v>523.4430486776935</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="F41" t="n">
-        <v>332.5520177556401</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="G41" t="n">
-        <v>141.6609868335868</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="H41" t="n">
-        <v>141.6609868335868</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="I41" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="J41" t="n">
-        <v>21.57376286149793</v>
+        <v>21.5737628614976</v>
       </c>
       <c r="K41" t="n">
-        <v>81.98694239675342</v>
+        <v>81.98694239675301</v>
       </c>
       <c r="L41" t="n">
-        <v>193.8365955669363</v>
+        <v>193.8365955669359</v>
       </c>
       <c r="M41" t="n">
-        <v>349.9603232837997</v>
+        <v>349.9603232837994</v>
       </c>
       <c r="N41" t="n">
-        <v>513.2241045162868</v>
+        <v>513.2241045162867</v>
       </c>
       <c r="O41" t="n">
-        <v>654.054202270898</v>
+        <v>654.0542022708978</v>
       </c>
       <c r="P41" t="n">
-        <v>739.7484316260388</v>
+        <v>739.7484316260387</v>
       </c>
       <c r="Q41" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="R41" t="n">
-        <v>744.7682062299621</v>
+        <v>744.7682062299619</v>
       </c>
       <c r="S41" t="n">
-        <v>584.5046176847517</v>
+        <v>744.7682062299619</v>
       </c>
       <c r="T41" t="n">
-        <v>584.5046176847517</v>
+        <v>553.8771753079086</v>
       </c>
       <c r="U41" t="n">
-        <v>584.5046176847517</v>
+        <v>553.8771753079086</v>
       </c>
       <c r="V41" t="n">
-        <v>584.5046176847517</v>
+        <v>553.8771753079086</v>
       </c>
       <c r="W41" t="n">
-        <v>584.5046176847517</v>
+        <v>553.8771753079086</v>
       </c>
       <c r="X41" t="n">
-        <v>584.5046176847517</v>
+        <v>396.9006314931332</v>
       </c>
       <c r="Y41" t="n">
-        <v>584.5046176847517</v>
+        <v>396.9006314931332</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15.11856964902663</v>
+        <v>724.4110749988381</v>
       </c>
       <c r="C42" t="n">
-        <v>15.11856964902663</v>
+        <v>549.9580457177111</v>
       </c>
       <c r="D42" t="n">
-        <v>15.11856964902663</v>
+        <v>401.0236360564598</v>
       </c>
       <c r="E42" t="n">
-        <v>15.11856964902663</v>
+        <v>401.0236360564598</v>
       </c>
       <c r="F42" t="n">
-        <v>15.11856964902663</v>
+        <v>254.4890780833448</v>
       </c>
       <c r="G42" t="n">
-        <v>15.11856964902663</v>
+        <v>116.9526210557591</v>
       </c>
       <c r="H42" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="I42" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="J42" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="K42" t="n">
         <v>67.68184810466532</v>
       </c>
       <c r="L42" t="n">
-        <v>184.6822038548815</v>
+        <v>186.524150146347</v>
       </c>
       <c r="M42" t="n">
-        <v>340.5729686373895</v>
+        <v>342.414914928855</v>
       </c>
       <c r="N42" t="n">
-        <v>514.9983430119901</v>
+        <v>516.8402893034555</v>
       </c>
       <c r="O42" t="n">
-        <v>652.3436886031752</v>
+        <v>654.1856348946407</v>
       </c>
       <c r="P42" t="n">
-        <v>745.0843170678467</v>
+        <v>745.0843170678465</v>
       </c>
       <c r="Q42" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="R42" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="S42" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="T42" t="n">
-        <v>565.0374515292779</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="U42" t="n">
-        <v>374.1464206072245</v>
+        <v>724.4110749988381</v>
       </c>
       <c r="V42" t="n">
-        <v>183.2553896851712</v>
+        <v>724.4110749988381</v>
       </c>
       <c r="W42" t="n">
-        <v>183.2553896851712</v>
+        <v>724.4110749988381</v>
       </c>
       <c r="X42" t="n">
-        <v>183.2553896851712</v>
+        <v>724.4110749988381</v>
       </c>
       <c r="Y42" t="n">
-        <v>15.11856964902663</v>
+        <v>724.4110749988381</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>484.5886962274016</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="C43" t="n">
-        <v>315.6525132994947</v>
+        <v>586.9922995234242</v>
       </c>
       <c r="D43" t="n">
-        <v>165.5358738871589</v>
+        <v>436.8756601110885</v>
       </c>
       <c r="E43" t="n">
-        <v>165.5358738871589</v>
+        <v>288.9625665286953</v>
       </c>
       <c r="F43" t="n">
-        <v>165.5358738871589</v>
+        <v>288.9625665286953</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5358738871589</v>
+        <v>288.9625665286953</v>
       </c>
       <c r="H43" t="n">
-        <v>165.5358738871589</v>
+        <v>133.9993660146284</v>
       </c>
       <c r="I43" t="n">
-        <v>38.62756539138676</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="J43" t="n">
-        <v>15.11856964902663</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="K43" t="n">
-        <v>107.0916914632739</v>
+        <v>15.11856964902662</v>
       </c>
       <c r="L43" t="n">
-        <v>119.4621022247764</v>
+        <v>188.338934936668</v>
       </c>
       <c r="M43" t="n">
-        <v>289.7809062145227</v>
+        <v>375.4312343433724</v>
       </c>
       <c r="N43" t="n">
-        <v>476.8732056212272</v>
+        <v>562.5235337500769</v>
       </c>
       <c r="O43" t="n">
-        <v>639.9277949546911</v>
+        <v>725.5781230835408</v>
       </c>
       <c r="P43" t="n">
-        <v>755.9284824513312</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="Q43" t="n">
-        <v>752.7428718774421</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="R43" t="n">
-        <v>752.7428718774421</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="S43" t="n">
-        <v>675.4797271494549</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="T43" t="n">
-        <v>484.5886962274016</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="U43" t="n">
-        <v>484.5886962274016</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="V43" t="n">
-        <v>484.5886962274016</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="W43" t="n">
-        <v>484.5886962274016</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="X43" t="n">
-        <v>484.5886962274016</v>
+        <v>755.9284824513311</v>
       </c>
       <c r="Y43" t="n">
-        <v>484.5886962274016</v>
+        <v>755.9284824513311</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>396.9006314931333</v>
+      </c>
+      <c r="C44" t="n">
         <v>206.00960057108</v>
       </c>
-      <c r="C44" t="n">
-        <v>15.11856964902663</v>
-      </c>
       <c r="D44" t="n">
-        <v>15.11856964902663</v>
+        <v>206.00960057108</v>
       </c>
       <c r="E44" t="n">
         <v>15.11856964902663</v>
@@ -7648,7 +7648,7 @@
         <v>15.11856964902663</v>
       </c>
       <c r="J44" t="n">
-        <v>21.57376286149801</v>
+        <v>21.57376286149793</v>
       </c>
       <c r="K44" t="n">
         <v>81.98694239675342</v>
@@ -7657,16 +7657,16 @@
         <v>193.8365955669363</v>
       </c>
       <c r="M44" t="n">
-        <v>349.9603232837998</v>
+        <v>349.9603232837997</v>
       </c>
       <c r="N44" t="n">
-        <v>513.2241045162871</v>
+        <v>513.2241045162868</v>
       </c>
       <c r="O44" t="n">
-        <v>654.0542022708981</v>
+        <v>654.054202270898</v>
       </c>
       <c r="P44" t="n">
-        <v>739.7484316260391</v>
+        <v>739.7484316260388</v>
       </c>
       <c r="Q44" t="n">
         <v>755.9284824513312</v>
@@ -7675,25 +7675,25 @@
         <v>744.7682062299621</v>
       </c>
       <c r="S44" t="n">
-        <v>587.7916624151867</v>
+        <v>744.7682062299621</v>
       </c>
       <c r="T44" t="n">
-        <v>587.7916624151867</v>
+        <v>553.8771753079087</v>
       </c>
       <c r="U44" t="n">
-        <v>587.7916624151867</v>
+        <v>553.8771753079087</v>
       </c>
       <c r="V44" t="n">
-        <v>587.7916624151867</v>
+        <v>553.8771753079087</v>
       </c>
       <c r="W44" t="n">
-        <v>396.9006314931333</v>
+        <v>553.8771753079087</v>
       </c>
       <c r="X44" t="n">
-        <v>396.9006314931333</v>
+        <v>553.8771753079087</v>
       </c>
       <c r="Y44" t="n">
-        <v>206.00960057108</v>
+        <v>553.8771753079087</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>565.0374515292779</v>
+        <v>396.8221145092098</v>
       </c>
       <c r="C45" t="n">
-        <v>390.5844222481509</v>
+        <v>222.3690852280828</v>
       </c>
       <c r="D45" t="n">
-        <v>241.6500125868996</v>
+        <v>161.6531276221417</v>
       </c>
       <c r="E45" t="n">
-        <v>210.8308626425272</v>
+        <v>161.6531276221417</v>
       </c>
       <c r="F45" t="n">
-        <v>64.29630466941218</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="G45" t="n">
-        <v>64.29630466941218</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="H45" t="n">
-        <v>64.29630466941218</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="I45" t="n">
         <v>15.11856964902663</v>
@@ -7739,13 +7739,13 @@
         <v>340.5729686373895</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8402893034556</v>
+        <v>514.9983430119901</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1856348946408</v>
+        <v>652.3436886031752</v>
       </c>
       <c r="P45" t="n">
-        <v>745.0843170678467</v>
+        <v>743.2423707763811</v>
       </c>
       <c r="Q45" t="n">
         <v>755.9284824513312</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>236.899489888921</v>
+        <v>183.2553896851712</v>
       </c>
       <c r="C46" t="n">
-        <v>236.899489888921</v>
+        <v>183.2553896851712</v>
       </c>
       <c r="D46" t="n">
-        <v>236.899489888921</v>
+        <v>183.2553896851712</v>
       </c>
       <c r="E46" t="n">
-        <v>236.899489888921</v>
+        <v>183.2553896851712</v>
       </c>
       <c r="F46" t="n">
-        <v>236.899489888921</v>
+        <v>183.2553896851712</v>
       </c>
       <c r="G46" t="n">
-        <v>68.21295028765664</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="H46" t="n">
-        <v>68.21295028765664</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="I46" t="n">
         <v>15.11856964902663</v>
@@ -7809,49 +7809,49 @@
         <v>15.11856964902663</v>
       </c>
       <c r="K46" t="n">
-        <v>107.0916914632739</v>
+        <v>45.46892901681701</v>
       </c>
       <c r="L46" t="n">
-        <v>280.3120567509152</v>
+        <v>218.6892943044583</v>
       </c>
       <c r="M46" t="n">
-        <v>296.6132034535239</v>
+        <v>405.7815937111628</v>
       </c>
       <c r="N46" t="n">
-        <v>476.8732056212272</v>
+        <v>592.8738931178673</v>
       </c>
       <c r="O46" t="n">
-        <v>639.9277949546911</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="P46" t="n">
         <v>755.9284824513312</v>
       </c>
       <c r="Q46" t="n">
-        <v>752.7428718774421</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="R46" t="n">
-        <v>618.6815517330277</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="S46" t="n">
-        <v>427.7905208109744</v>
+        <v>755.9284824513312</v>
       </c>
       <c r="T46" t="n">
-        <v>427.7905208109744</v>
+        <v>565.0374515292779</v>
       </c>
       <c r="U46" t="n">
-        <v>236.899489888921</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="V46" t="n">
-        <v>236.899489888921</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="W46" t="n">
-        <v>236.899489888921</v>
+        <v>374.1464206072245</v>
       </c>
       <c r="X46" t="n">
-        <v>236.899489888921</v>
+        <v>183.2553896851712</v>
       </c>
       <c r="Y46" t="n">
-        <v>236.899489888921</v>
+        <v>183.2553896851712</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>15.12442232539939</v>
+        <v>16.98497413496083</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.860551809561139</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>13.84162309793807</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>75.95921858312053</v>
       </c>
       <c r="M13" t="n">
-        <v>172.516315862723</v>
+        <v>172.5163158627231</v>
       </c>
       <c r="N13" t="n">
-        <v>164.9709410423045</v>
+        <v>164.9709410423046</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>118.6306034747749</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>16.98497413496061</v>
+        <v>15.12442232539939</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.860551809561557</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9093,16 +9093,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>172.516315862723</v>
+        <v>172.5163158627231</v>
       </c>
       <c r="N16" t="n">
-        <v>164.9709410423045</v>
+        <v>164.9709410423046</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>48.49108035560697</v>
+        <v>48.49108035560708</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9245,7 +9245,7 @@
         <v>15.12442232539939</v>
       </c>
       <c r="K18" t="n">
-        <v>1.86055180956145</v>
+        <v>1.860551809560995</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9330,16 +9330,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>172.5163158627231</v>
+        <v>172.516315862723</v>
       </c>
       <c r="N19" t="n">
-        <v>164.9709410423046</v>
+        <v>164.9709410423044</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>48.49108035560708</v>
+        <v>48.49108035560685</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.860551809561368</v>
+        <v>1.860551809561139</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>13.8416230979381</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>172.5163158627231</v>
+        <v>172.516315862723</v>
       </c>
       <c r="N22" t="n">
-        <v>164.9709410423046</v>
+        <v>102.7257264499237</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>48.49108035560708</v>
+        <v>17.83415170127327</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>316.9408275536904</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>213.0513308898197</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>291.40441359421</v>
+        <v>262.2553984886844</v>
       </c>
       <c r="Q23" t="n">
-        <v>74.74048155834492</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>259.7820637001947</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>93.25732576314638</v>
       </c>
       <c r="P24" t="n">
-        <v>164.6442552605727</v>
+        <v>286.1473905456597</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>316.9408275536904</v>
       </c>
       <c r="L26" t="n">
-        <v>67.52830629003816</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>220.2635061581266</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>291.40441359421</v>
+        <v>219.0370230008537</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>259.7820637001947</v>
+        <v>88.57415245076245</v>
       </c>
       <c r="M27" t="n">
-        <v>140.1731473974688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>239.2315689113371</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>286.1473905456597</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10114,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>244.573436960334</v>
       </c>
       <c r="L29" t="n">
-        <v>79.26638693539317</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>220.2635061581266</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>213.0513308898198</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>235.7116172311089</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>291.4044135942101</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>169.3274285729568</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>259.7820637001946</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>220.4988222534353</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>201.7769943826348</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>6.833675637081669</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>264.9847935790162</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>75.47682178825997</v>
+        <v>22.80701886914875</v>
       </c>
       <c r="P32" t="n">
-        <v>291.40441359421</v>
+        <v>291.4044135942101</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>15.12442232539939</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>259.7820637001947</v>
       </c>
       <c r="M33" t="n">
-        <v>52.15172035986654</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>201.7769943826347</v>
+        <v>114.9394792962276</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>286.1473905456596</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>15.12442232539939</v>
+        <v>16.9849741349605</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.86055180956091</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,13 +10746,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>13.8416230979381</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>155.5733911991287</v>
+        <v>86.00083290428887</v>
       </c>
       <c r="N37" t="n">
         <v>164.9709410423045</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>16.98497413496061</v>
+        <v>15.12442232539939</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1.860551809561102</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10989,7 +10989,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>86.00083290428898</v>
+        <v>172.516315862723</v>
       </c>
       <c r="N40" t="n">
         <v>164.9709410423045</v>
@@ -10998,7 +10998,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>48.49108035560685</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.860551809561102</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.860551809561173</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>13.8416230979381</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>155.573391199129</v>
+        <v>172.516315862723</v>
       </c>
       <c r="N43" t="n">
         <v>164.9709410423045</v>
@@ -11235,7 +11235,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>48.49108035560685</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1.860551809561201</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1.860551809561139</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>44.49855175227182</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>172.516315862723</v>
       </c>
       <c r="N46" t="n">
-        <v>158.069630699879</v>
+        <v>164.9709410423045</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>17.83415170127327</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>193.7517210506477</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>165.7009210078502</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>374.1358708962368</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.0927927240659</v>
+        <v>224.110672111233</v>
       </c>
       <c r="H11" t="n">
-        <v>256.3912517072432</v>
+        <v>316.8422050242307</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>125.2769930127145</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>11.04867345915545</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>24.43969562839359</v>
+        <v>24.43969562839348</v>
       </c>
       <c r="U11" t="n">
         <v>251.168857324551</v>
@@ -23339,22 +23339,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>62.77621207251394</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1610924573098</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.8157108926651</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>6.416606745485183</v>
+        <v>195.398727358318</v>
       </c>
       <c r="U12" t="n">
         <v>225.8635909819024</v>
@@ -23399,7 +23399,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>63.59662343019582</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9996742052518</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.4135685089263</v>
       </c>
       <c r="I13" t="n">
-        <v>4.50566512021139</v>
+        <v>125.6392254108145</v>
       </c>
       <c r="J13" t="n">
-        <v>23.27390578493653</v>
+        <v>23.27390578493652</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.153754468150254</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>132.7207069429703</v>
       </c>
       <c r="S13" t="n">
-        <v>206.7408527760827</v>
+        <v>43.43915540844969</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7100128645788</v>
+        <v>34.72789225174586</v>
       </c>
       <c r="U13" t="n">
-        <v>286.264958166316</v>
+        <v>97.28283755348306</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>63.15552271099509</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>176.2907711581747</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>199.2762632440553</v>
       </c>
       <c r="E14" t="n">
-        <v>192.948249459429</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>217.8939251288786</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>224.1106721112331</v>
+        <v>413.0927927240659</v>
       </c>
       <c r="H14" t="n">
-        <v>150.3867531884477</v>
+        <v>316.8422050242308</v>
       </c>
       <c r="I14" t="n">
         <v>125.2769930127145</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.04867345915548</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>158.6609526597583</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4218162412264</v>
+        <v>24.43969562839351</v>
       </c>
       <c r="U14" t="n">
-        <v>251.168857324551</v>
+        <v>62.18673671171808</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.1610924573098</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.8157108926651</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>48.68595767018169</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>225.8635909819024</v>
       </c>
       <c r="V15" t="n">
-        <v>105.215099048255</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>68.96590970061933</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>16.79086459064459</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>16.70057516447147</v>
       </c>
     </row>
     <row r="16">
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9996742052518</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4135685089263</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>125.6392254108145</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.153754468150254</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>132.7207069429703</v>
       </c>
       <c r="S16" t="n">
-        <v>17.75873216324987</v>
+        <v>17.75873216324979</v>
       </c>
       <c r="T16" t="n">
-        <v>34.72789225174597</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U16" t="n">
-        <v>119.8095063305329</v>
+        <v>190.267598751444</v>
       </c>
       <c r="V16" t="n">
-        <v>63.1555227109952</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,16 +23734,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>176.2907711581747</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>165.7009210078501</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>192.9482494594289</v>
+        <v>192.948249459429</v>
       </c>
       <c r="F17" t="n">
-        <v>240.4205939059282</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.0927927240659</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.04867345915548</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>158.6609526597583</v>
       </c>
       <c r="T17" t="n">
-        <v>213.4218162412264</v>
+        <v>58.01503786459878</v>
       </c>
       <c r="U17" t="n">
         <v>251.168857324551</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>138.7701378573022</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>160.2588481045803</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23822,13 +23822,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>58.00316262178101</v>
+        <v>26.60844329474315</v>
       </c>
       <c r="I18" t="n">
         <v>48.68595767018169</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>26.74378092136416</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>149.7201507990578</v>
       </c>
       <c r="T18" t="n">
         <v>195.398727358318</v>
       </c>
       <c r="U18" t="n">
-        <v>36.88147036906955</v>
+        <v>225.8635909819024</v>
       </c>
       <c r="V18" t="n">
-        <v>43.81846653659241</v>
+        <v>43.81846653659252</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>62.71286254808686</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>149.1596953876809</v>
+        <v>166.9996742052518</v>
       </c>
       <c r="H19" t="n">
         <v>153.4135685089263</v>
@@ -23940,16 +23940,16 @@
         <v>132.7207069429703</v>
       </c>
       <c r="S19" t="n">
-        <v>206.7408527760827</v>
+        <v>17.75873216324993</v>
       </c>
       <c r="T19" t="n">
-        <v>34.72789225174591</v>
+        <v>34.72789225174603</v>
       </c>
       <c r="U19" t="n">
-        <v>286.264958166316</v>
+        <v>97.28283755348323</v>
       </c>
       <c r="V19" t="n">
-        <v>63.15552271099514</v>
+        <v>85.68219148804502</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.60253273926193</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>216.2783898276974</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>192.9482494594289</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>240.4205939059283</v>
       </c>
       <c r="G20" t="n">
         <v>413.0927927240659</v>
       </c>
       <c r="H20" t="n">
-        <v>127.8600844113979</v>
+        <v>127.860084411398</v>
       </c>
       <c r="I20" t="n">
         <v>125.2769930127145</v>
@@ -24022,13 +24022,13 @@
         <v>158.6609526597583</v>
       </c>
       <c r="T20" t="n">
-        <v>24.43969562839354</v>
+        <v>24.43969562839359</v>
       </c>
       <c r="U20" t="n">
         <v>251.168857324551</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>138.7701378573021</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>69.54004440421657</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.1610924573098</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>100.8157108926651</v>
@@ -24110,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>62.79059436217102</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>16.79086459064462</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.7005751644715</v>
+        <v>16.70057516447156</v>
       </c>
     </row>
     <row r="22">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>57.30122576214642</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9996742052518</v>
+        <v>82.62237519038156</v>
       </c>
       <c r="H22" t="n">
         <v>153.4135685089263</v>
       </c>
       <c r="I22" t="n">
-        <v>125.6392254108145</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>23.27390578493653</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.153754468150254</v>
       </c>
       <c r="R22" t="n">
         <v>132.7207069429703</v>
       </c>
       <c r="S22" t="n">
-        <v>206.7408527760827</v>
+        <v>17.75873216324987</v>
       </c>
       <c r="T22" t="n">
-        <v>223.7100128645788</v>
+        <v>34.72789225174597</v>
       </c>
       <c r="U22" t="n">
         <v>286.264958166316</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.769600437815029</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,10 +24214,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>3.966128846596234</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>112.2123592851313</v>
       </c>
       <c r="G23" t="n">
         <v>413.0927927240659</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>125.2769930127145</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>11.04867345915548</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>134.3591134652264</v>
+        <v>158.6609526597583</v>
       </c>
       <c r="T23" t="n">
         <v>213.4218162412264</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.1610924573098</v>
       </c>
       <c r="H24" t="n">
-        <v>49.82749897913477</v>
+        <v>100.8157108926651</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.68595767018169</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.62242063885366</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>149.7201507990578</v>
       </c>
       <c r="T24" t="n">
-        <v>195.398727358318</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>78.3696671504772</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>153.4135685089263</v>
@@ -24414,13 +24414,13 @@
         <v>132.7207069429703</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>206.7408527760827</v>
       </c>
       <c r="T25" t="n">
-        <v>223.7100128645788</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.264958166316</v>
+        <v>152.6997050209711</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.769600437815029</v>
+        <v>4.769600437814972</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>3.966128846596234</v>
+        <v>3.966128846596177</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>243.674768189059</v>
       </c>
       <c r="G26" t="n">
-        <v>35.12855149840038</v>
+        <v>413.0927927240659</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>316.8422050242308</v>
       </c>
       <c r="I26" t="n">
-        <v>109.2082943653793</v>
+        <v>125.2769930127145</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>11.04867345915548</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>158.6609526597583</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>213.4218162412264</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>8.273697430387983</v>
       </c>
     </row>
     <row r="27">
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.1610924573098</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>100.8157108926651</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.68595767018169</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>26.74378092136416</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>149.7201507990578</v>
       </c>
       <c r="T27" t="n">
-        <v>195.398727358318</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>49.86222219246395</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>113.3824749329386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24654,16 +24654,16 @@
         <v>206.7408527760827</v>
       </c>
       <c r="T28" t="n">
-        <v>20.36900314500033</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U28" t="n">
         <v>286.264958166316</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>6.817603720002921</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>3.966128846596177</v>
       </c>
       <c r="F29" t="n">
-        <v>28.91180451604589</v>
+        <v>77.61395231621952</v>
       </c>
       <c r="G29" t="n">
         <v>413.0927927240659</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>316.8422050242308</v>
       </c>
       <c r="I29" t="n">
-        <v>125.2769930127145</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>190.0553770561596</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>94.59368679604817</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.1610924573098</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>100.8157108926651</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>26.74378092136416</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>149.7201507990578</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>195.398727358318</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8635909819024</v>
+        <v>42.04334955926308</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.9996742052518</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.4135685089263</v>
       </c>
       <c r="I31" t="n">
         <v>125.6392254108145</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>23.27390578493653</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>3.153754468150254</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>71.59996567847699</v>
       </c>
       <c r="S31" t="n">
         <v>206.7408527760827</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U31" t="n">
-        <v>189.4045313752935</v>
+        <v>286.264958166316</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.769600437815029</v>
+        <v>24.89906239142925</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>3.966128846596177</v>
       </c>
       <c r="F32" t="n">
-        <v>65.73200152294885</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.0927927240659</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>11.04867345915548</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>158.6609526597583</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.27369743038804</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>157.157770941323</v>
       </c>
       <c r="C33" t="n">
-        <v>30.02071422529357</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>100.8157108926651</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>48.68595767018169</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>26.74378092136416</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>149.7201507990578</v>
       </c>
       <c r="T33" t="n">
         <v>195.398727358318</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8635909819024</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>116.0873919716913</v>
       </c>
       <c r="E34" t="n">
-        <v>128.7664656519609</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,13 +25092,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.4135685089263</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>125.6392254108145</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>23.27390578493653</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>3.153754468150254</v>
       </c>
       <c r="R34" t="n">
         <v>132.7207069429703</v>
       </c>
       <c r="S34" t="n">
-        <v>206.7408527760827</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.7100128645788</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.264958166316</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>193.7517210506478</v>
       </c>
       <c r="C35" t="n">
-        <v>176.2907711581748</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>251.4692673650838</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>224.1106721112332</v>
+        <v>413.0927927240659</v>
       </c>
       <c r="H35" t="n">
-        <v>127.860084411398</v>
+        <v>316.8422050242308</v>
       </c>
       <c r="I35" t="n">
         <v>125.2769930127145</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>11.04867345915548</v>
       </c>
       <c r="S35" t="n">
         <v>158.6609526597583</v>
       </c>
       <c r="T35" t="n">
-        <v>213.4218162412264</v>
+        <v>24.43969562839362</v>
       </c>
       <c r="U35" t="n">
-        <v>251.168857324551</v>
+        <v>62.1867367117182</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>219.7824868202706</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>109.6748335646952</v>
+        <v>136.1610924573098</v>
       </c>
       <c r="H36" t="n">
         <v>100.8157108926651</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.68595767018169</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25292,16 +25292,16 @@
         <v>225.8635909819024</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>43.8184665365925</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>62.71286254808683</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>23.04391174317743</v>
       </c>
       <c r="Y36" t="n">
-        <v>16.70057516447162</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>26.97188262255548</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.4135685089263</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>125.6392254108145</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.22006966969948</v>
+        <v>132.7207069429703</v>
       </c>
       <c r="S37" t="n">
         <v>206.7408527760827</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7100128645788</v>
+        <v>34.727892251746</v>
       </c>
       <c r="U37" t="n">
-        <v>286.264958166316</v>
+        <v>97.2828375534832</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>97.54087772375823</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>176.2907711581747</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>192.948249459429</v>
       </c>
       <c r="F38" t="n">
-        <v>217.8939251288786</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>224.1106721112331</v>
+        <v>413.0927927240659</v>
       </c>
       <c r="H38" t="n">
-        <v>286.7124196603177</v>
+        <v>309.047705848206</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>125.2769930127145</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>11.04867345915548</v>
       </c>
       <c r="S38" t="n">
-        <v>158.6609526597583</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.4218162412264</v>
+        <v>24.43969562839362</v>
       </c>
       <c r="U38" t="n">
-        <v>251.168857324551</v>
+        <v>62.1867367117182</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25475,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25487,7 +25487,7 @@
         <v>136.1610924573098</v>
       </c>
       <c r="H39" t="n">
-        <v>100.8157108926651</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>48.68595767018169</v>
@@ -25520,25 +25520,25 @@
         <v>26.74378092136416</v>
       </c>
       <c r="S39" t="n">
-        <v>149.7201507990578</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>195.398727358318</v>
+        <v>6.416606745485211</v>
       </c>
       <c r="U39" t="n">
         <v>225.8635909819024</v>
       </c>
       <c r="V39" t="n">
-        <v>43.81846653659247</v>
+        <v>86.36182134433838</v>
       </c>
       <c r="W39" t="n">
-        <v>62.7128625480868</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>16.79086459064467</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>39.22724394152127</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25569,7 +25569,7 @@
         <v>153.4135685089263</v>
       </c>
       <c r="I40" t="n">
-        <v>95.0582349861518</v>
+        <v>125.6392254108145</v>
       </c>
       <c r="J40" t="n">
         <v>23.27390578493653</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>3.153754468150254</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>17.75873216324987</v>
+        <v>17.7587321632499</v>
       </c>
       <c r="T40" t="n">
-        <v>34.72789225174597</v>
+        <v>34.727892251746</v>
       </c>
       <c r="U40" t="n">
-        <v>286.264958166316</v>
+        <v>97.2828375534832</v>
       </c>
       <c r="V40" t="n">
-        <v>63.1555227109952</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>252.7882534437782</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>165.7009210078502</v>
       </c>
       <c r="E41" t="n">
-        <v>321.4794167552741</v>
+        <v>192.948249459429</v>
       </c>
       <c r="F41" t="n">
-        <v>217.8939251288786</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>224.1106721112331</v>
+        <v>413.0927927240659</v>
       </c>
       <c r="H41" t="n">
         <v>316.8422050242308</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>125.2769930127145</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>158.6609526597583</v>
       </c>
       <c r="T41" t="n">
-        <v>213.4218162412264</v>
+        <v>24.43969562839362</v>
       </c>
       <c r="U41" t="n">
         <v>251.168857324551</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>214.3243223018414</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25709,22 +25709,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.1610924573098</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>100.8157108926651</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>48.68595767018169</v>
@@ -25760,13 +25760,13 @@
         <v>149.7201507990578</v>
       </c>
       <c r="T42" t="n">
-        <v>6.416606745485183</v>
+        <v>195.398727358318</v>
       </c>
       <c r="U42" t="n">
-        <v>36.8814703690696</v>
+        <v>194.6613576039343</v>
       </c>
       <c r="V42" t="n">
-        <v>43.81846653659247</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>39.22724394152127</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,13 +25803,13 @@
         <v>166.9996742052518</v>
       </c>
       <c r="H43" t="n">
-        <v>153.4135685089263</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>7.947237008868711</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>23.27390578493653</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>3.153754468150254</v>
       </c>
       <c r="R43" t="n">
         <v>132.7207069429703</v>
       </c>
       <c r="S43" t="n">
-        <v>130.2503394953754</v>
+        <v>206.7408527760827</v>
       </c>
       <c r="T43" t="n">
-        <v>34.72789225174597</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U43" t="n">
         <v>286.264958166316</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>227.327063286853</v>
       </c>
       <c r="C44" t="n">
         <v>176.2907711581747</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>192.948249459429</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.254174283130652</v>
+        <v>158.6609526597583</v>
       </c>
       <c r="T44" t="n">
-        <v>213.4218162412264</v>
+        <v>24.43969562839359</v>
       </c>
       <c r="U44" t="n">
         <v>251.168857324551</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>160.2588481045802</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>197.2558180432208</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>87.33626753475701</v>
       </c>
       <c r="E45" t="n">
-        <v>127.1341220104723</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>100.8157108926651</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.68595767018169</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5442223694686561</v>
       </c>
       <c r="H46" t="n">
         <v>153.4135685089263</v>
       </c>
       <c r="I46" t="n">
-        <v>73.07578857857075</v>
+        <v>125.6392254108145</v>
       </c>
       <c r="J46" t="n">
         <v>23.27390578493653</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.153754468150254</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>132.7207069429703</v>
       </c>
       <c r="S46" t="n">
-        <v>17.75873216324987</v>
+        <v>206.7408527760827</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7100128645788</v>
+        <v>34.72789225174597</v>
       </c>
       <c r="U46" t="n">
         <v>97.28283755348318</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>36.72753477620435</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>391120.9971499966</v>
+        <v>391120.9971499969</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>391120.9971499966</v>
+        <v>391120.9971499969</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>391120.9971499968</v>
+        <v>391120.9971499966</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>391120.9971499969</v>
+        <v>391120.9971499968</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>528180.6163154249</v>
+        <v>528180.616315425</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>528180.6163154249</v>
+        <v>528180.6163154253</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>528180.616315425</v>
+        <v>528180.6163154251</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>391120.9971499966</v>
+        <v>391120.9971499969</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.437101927</v>
       </c>
       <c r="C2" t="n">
         <v>573493.437101927</v>
       </c>
       <c r="D2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019268</v>
       </c>
       <c r="E2" t="n">
         <v>253255.5412798626</v>
@@ -26328,7 +26328,7 @@
         <v>253255.5412798625</v>
       </c>
       <c r="G2" t="n">
-        <v>253255.5412798626</v>
+        <v>253255.5412798625</v>
       </c>
       <c r="H2" t="n">
         <v>253255.5412798625</v>
@@ -26340,22 +26340,22 @@
         <v>319053.7107081587</v>
       </c>
       <c r="K2" t="n">
-        <v>319053.7107081587</v>
+        <v>319053.7107081588</v>
       </c>
       <c r="L2" t="n">
-        <v>319053.7107081586</v>
+        <v>319053.7107081588</v>
       </c>
       <c r="M2" t="n">
         <v>253255.5412798625</v>
       </c>
       <c r="N2" t="n">
-        <v>253255.5412798625</v>
+        <v>253255.5412798626</v>
       </c>
       <c r="O2" t="n">
         <v>253255.5412798625</v>
       </c>
       <c r="P2" t="n">
-        <v>253255.5412798626</v>
+        <v>253255.5412798625</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498075.6270094358</v>
+        <v>498075.6270094359</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50254.31449548512</v>
+        <v>50254.31449548511</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>11401.56136242891</v>
       </c>
       <c r="F4" t="n">
-        <v>11401.56136242891</v>
+        <v>11401.56136242892</v>
       </c>
       <c r="G4" t="n">
-        <v>11401.56136242891</v>
+        <v>11401.5613624289</v>
       </c>
       <c r="H4" t="n">
         <v>11401.56136242891</v>
       </c>
       <c r="I4" t="n">
-        <v>49907.78525424886</v>
+        <v>49907.78525424888</v>
       </c>
       <c r="J4" t="n">
         <v>49907.78525424887</v>
       </c>
       <c r="K4" t="n">
-        <v>49907.78525424887</v>
+        <v>49907.78525424888</v>
       </c>
       <c r="L4" t="n">
-        <v>49907.78525424886</v>
+        <v>49907.78525424888</v>
       </c>
       <c r="M4" t="n">
         <v>11401.5613624289</v>
       </c>
       <c r="N4" t="n">
-        <v>11401.56136242891</v>
+        <v>11401.5613624289</v>
       </c>
       <c r="O4" t="n">
-        <v>11401.56136242891</v>
+        <v>11401.5613624289</v>
       </c>
       <c r="P4" t="n">
         <v>11401.56136242891</v>
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23474.09104903018</v>
+        <v>23474.09104903019</v>
       </c>
       <c r="F5" t="n">
-        <v>23474.09104903018</v>
+        <v>23474.09104903019</v>
       </c>
       <c r="G5" t="n">
         <v>23474.09104903018</v>
@@ -26490,16 +26490,16 @@
         <v>23474.09104903018</v>
       </c>
       <c r="I5" t="n">
-        <v>34964.20398229041</v>
+        <v>34964.20398229042</v>
       </c>
       <c r="J5" t="n">
-        <v>34964.20398229041</v>
+        <v>34964.20398229042</v>
       </c>
       <c r="K5" t="n">
-        <v>34964.20398229041</v>
+        <v>34964.20398229042</v>
       </c>
       <c r="L5" t="n">
-        <v>34964.20398229041</v>
+        <v>34964.20398229042</v>
       </c>
       <c r="M5" t="n">
         <v>23474.09104903018</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108967.327659251</v>
+        <v>108923.19188057</v>
       </c>
       <c r="C6" t="n">
-        <v>108967.3276592511</v>
+        <v>108923.19188057</v>
       </c>
       <c r="D6" t="n">
-        <v>108967.3276592511</v>
+        <v>108923.1918805698</v>
       </c>
       <c r="E6" t="n">
-        <v>-279695.7381410323</v>
+        <v>-291176.9416276444</v>
       </c>
       <c r="F6" t="n">
-        <v>218379.8888684034</v>
+        <v>206898.6853817914</v>
       </c>
       <c r="G6" t="n">
-        <v>218379.8888684035</v>
+        <v>206898.6853817914</v>
       </c>
       <c r="H6" t="n">
-        <v>218379.8888684034</v>
+        <v>206898.6853817914</v>
       </c>
       <c r="I6" t="n">
-        <v>183927.4069761344</v>
+        <v>174796.1381119615</v>
       </c>
       <c r="J6" t="n">
-        <v>234181.7214716194</v>
+        <v>225050.4526074466</v>
       </c>
       <c r="K6" t="n">
-        <v>234181.7214716194</v>
+        <v>225050.4526074466</v>
       </c>
       <c r="L6" t="n">
-        <v>234181.7214716193</v>
+        <v>225050.4526074467</v>
       </c>
       <c r="M6" t="n">
-        <v>218379.8888684034</v>
+        <v>206898.6853817914</v>
       </c>
       <c r="N6" t="n">
-        <v>218379.8888684034</v>
+        <v>206898.6853817915</v>
       </c>
       <c r="O6" t="n">
-        <v>218379.8888684034</v>
+        <v>206898.6853817914</v>
       </c>
       <c r="P6" t="n">
-        <v>218379.8888684035</v>
+        <v>206898.6853817914</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549.7237667784379</v>
+        <v>549.7237667784381</v>
       </c>
       <c r="F3" t="n">
         <v>549.7237667784379</v>
@@ -26798,31 +26798,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>188.9821206128329</v>
+      </c>
+      <c r="F4" t="n">
+        <v>188.9821206128329</v>
+      </c>
+      <c r="G4" t="n">
+        <v>188.9821206128327</v>
+      </c>
+      <c r="H4" t="n">
         <v>188.9821206128328</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>377.9642412256656</v>
+      </c>
+      <c r="J4" t="n">
+        <v>377.9642412256656</v>
+      </c>
+      <c r="K4" t="n">
+        <v>377.9642412256656</v>
+      </c>
+      <c r="L4" t="n">
+        <v>377.9642412256656</v>
+      </c>
+      <c r="M4" t="n">
         <v>188.9821206128328</v>
-      </c>
-      <c r="G4" t="n">
-        <v>188.9821206128329</v>
-      </c>
-      <c r="H4" t="n">
-        <v>188.9821206128329</v>
-      </c>
-      <c r="I4" t="n">
-        <v>377.9642412256655</v>
-      </c>
-      <c r="J4" t="n">
-        <v>377.9642412256655</v>
-      </c>
-      <c r="K4" t="n">
-        <v>377.9642412256655</v>
-      </c>
-      <c r="L4" t="n">
-        <v>377.9642412256655</v>
-      </c>
-      <c r="M4" t="n">
-        <v>188.9821206128327</v>
       </c>
       <c r="N4" t="n">
         <v>188.9821206128328</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549.7237667784379</v>
+        <v>549.7237667784381</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>188.9821206128329</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>188.9821206128328</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>188.9821206128329</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>188.9821206128328</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,31 +31755,31 @@
         <v>2.209944791069096</v>
       </c>
       <c r="H11" t="n">
-        <v>22.63259709153638</v>
+        <v>22.63259709153639</v>
       </c>
       <c r="I11" t="n">
-        <v>85.19889655769138</v>
+        <v>85.19889655769141</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5663017110008</v>
+        <v>187.5663017110009</v>
       </c>
       <c r="K11" t="n">
-        <v>281.1132647169557</v>
+        <v>281.1132647169558</v>
       </c>
       <c r="L11" t="n">
-        <v>348.7458626166366</v>
+        <v>348.7458626166367</v>
       </c>
       <c r="M11" t="n">
-        <v>388.0469682948116</v>
+        <v>388.0469682948117</v>
       </c>
       <c r="N11" t="n">
-        <v>394.3259739324367</v>
+        <v>394.3259739324368</v>
       </c>
       <c r="O11" t="n">
-        <v>372.3508354162434</v>
+        <v>372.3508354162435</v>
       </c>
       <c r="P11" t="n">
-        <v>317.792823386725</v>
+        <v>317.7928233867251</v>
       </c>
       <c r="Q11" t="n">
         <v>238.649175556563</v>
@@ -31788,13 +31788,13 @@
         <v>138.8204444819942</v>
       </c>
       <c r="S11" t="n">
-        <v>50.35911692648707</v>
+        <v>50.35911692648708</v>
       </c>
       <c r="T11" t="n">
-        <v>9.674033322904972</v>
+        <v>9.674033322904974</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1767955832855276</v>
+        <v>0.1767955832855277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>11.41973334383133</v>
       </c>
       <c r="I12" t="n">
-        <v>40.71067518123338</v>
+        <v>40.71067518123339</v>
       </c>
       <c r="J12" t="n">
         <v>111.7132043412673</v>
@@ -31852,10 +31852,10 @@
         <v>299.5994528942487</v>
       </c>
       <c r="N12" t="n">
-        <v>307.5289589263641</v>
+        <v>307.5289589263642</v>
       </c>
       <c r="O12" t="n">
-        <v>281.3289167587728</v>
+        <v>281.3289167587729</v>
       </c>
       <c r="P12" t="n">
         <v>225.7912580943362</v>
@@ -31864,16 +31864,16 @@
         <v>150.9354764935817</v>
       </c>
       <c r="R12" t="n">
-        <v>73.41405323127897</v>
+        <v>73.41405323127898</v>
       </c>
       <c r="S12" t="n">
         <v>21.96302030478003</v>
       </c>
       <c r="T12" t="n">
-        <v>4.766001336503625</v>
+        <v>4.766001336503626</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0777910990724205</v>
+        <v>0.07779109907242052</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9913051532070192</v>
+        <v>0.9913051532070193</v>
       </c>
       <c r="H13" t="n">
-        <v>8.813603998513322</v>
+        <v>8.813603998513324</v>
       </c>
       <c r="I13" t="n">
-        <v>29.81124951644382</v>
+        <v>29.81124951644383</v>
       </c>
       <c r="J13" t="n">
-        <v>70.08527433173624</v>
+        <v>70.08527433173626</v>
       </c>
       <c r="K13" t="n">
         <v>115.1716350725973</v>
@@ -31934,25 +31934,25 @@
         <v>151.6967240357615</v>
       </c>
       <c r="O13" t="n">
-        <v>140.1164774732976</v>
+        <v>140.1164774732977</v>
       </c>
       <c r="P13" t="n">
-        <v>119.8938523478743</v>
+        <v>119.8938523478744</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.00828878354413</v>
+        <v>83.00828878354415</v>
       </c>
       <c r="R13" t="n">
-        <v>44.57268443419923</v>
+        <v>44.57268443419924</v>
       </c>
       <c r="S13" t="n">
         <v>17.27574526088959</v>
       </c>
       <c r="T13" t="n">
-        <v>4.235576563702717</v>
+        <v>4.235576563702718</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05407119017492838</v>
+        <v>0.05407119017492839</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.520397184314533</v>
+        <v>6.520397184314589</v>
       </c>
       <c r="K11" t="n">
-        <v>61.02341367197516</v>
+        <v>61.02341367197522</v>
       </c>
       <c r="L11" t="n">
         <v>112.9794476466494</v>
@@ -35421,16 +35421,16 @@
         <v>157.7007350675389</v>
       </c>
       <c r="N11" t="n">
-        <v>164.9129103358458</v>
+        <v>164.9129103358459</v>
       </c>
       <c r="O11" t="n">
         <v>142.2526239945567</v>
       </c>
       <c r="P11" t="n">
-        <v>86.55982763145551</v>
+        <v>86.55982763145556</v>
       </c>
       <c r="Q11" t="n">
-        <v>16.34348568211348</v>
+        <v>16.34348568211354</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.860551809561465</v>
       </c>
       <c r="K12" t="n">
-        <v>53.09422066226131</v>
+        <v>53.09422066226134</v>
       </c>
       <c r="L12" t="n">
         <v>118.1821775254709</v>
       </c>
       <c r="M12" t="n">
-        <v>157.4654189722303</v>
+        <v>157.4654189722304</v>
       </c>
       <c r="N12" t="n">
-        <v>176.1872468430308</v>
+        <v>176.1872468430309</v>
       </c>
       <c r="O12" t="n">
-        <v>138.7326723143284</v>
+        <v>138.7326723143285</v>
       </c>
       <c r="P12" t="n">
-        <v>91.81685068000593</v>
+        <v>91.81685068000598</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.81425421712131</v>
+        <v>10.9537024075602</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>92.90214324671443</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>174.9700659471125</v>
+        <v>88.4545829886786</v>
       </c>
       <c r="M13" t="n">
-        <v>188.9821206128328</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="N13" t="n">
-        <v>188.9821206128328</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="O13" t="n">
-        <v>1.659939021454846</v>
+        <v>164.7016053873373</v>
       </c>
       <c r="P13" t="n">
-        <v>100.7964517735017</v>
+        <v>117.1724116127679</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.860551809561216</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>53.09422066226131</v>
+        <v>54.95477247182286</v>
       </c>
       <c r="L15" t="n">
         <v>118.1821775254709</v>
@@ -35813,16 +35813,16 @@
         <v>174.9700659471125</v>
       </c>
       <c r="M16" t="n">
-        <v>188.9821206128328</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="N16" t="n">
-        <v>188.9821206128328</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="O16" t="n">
         <v>164.7016053873373</v>
       </c>
       <c r="P16" t="n">
-        <v>30.6569286543337</v>
+        <v>30.65692865433381</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>54.95477247182276</v>
+        <v>54.9547724718223</v>
       </c>
       <c r="L18" t="n">
         <v>118.1821775254709</v>
@@ -36050,16 +36050,16 @@
         <v>174.9700659471125</v>
       </c>
       <c r="M19" t="n">
-        <v>188.9821206128329</v>
+        <v>188.9821206128327</v>
       </c>
       <c r="N19" t="n">
-        <v>188.9821206128329</v>
+        <v>188.9821206128327</v>
       </c>
       <c r="O19" t="n">
         <v>164.7016053873373</v>
       </c>
       <c r="P19" t="n">
-        <v>30.65692865433381</v>
+        <v>30.65692865433358</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>86.55982763145551</v>
       </c>
       <c r="Q20" t="n">
-        <v>16.3434856821135</v>
+        <v>16.34348568211348</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>91.81685068000593</v>
       </c>
       <c r="Q21" t="n">
-        <v>12.81425421712154</v>
+        <v>12.81425421712131</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>92.90214324671443</v>
       </c>
       <c r="L22" t="n">
         <v>174.9700659471125</v>
       </c>
       <c r="M22" t="n">
-        <v>188.9821206128329</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="N22" t="n">
-        <v>188.9821206128329</v>
+        <v>126.736906020452</v>
       </c>
       <c r="O22" t="n">
         <v>164.7016053873373</v>
       </c>
       <c r="P22" t="n">
-        <v>30.65692865433381</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>175.6170123563883</v>
       </c>
       <c r="K23" t="n">
-        <v>61.02341367197516</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="L23" t="n">
         <v>112.9794476466494</v>
@@ -36369,16 +36369,16 @@
         <v>157.7007350675389</v>
       </c>
       <c r="N23" t="n">
-        <v>377.9642412256655</v>
+        <v>164.9129103358458</v>
       </c>
       <c r="O23" t="n">
         <v>142.2526239945567</v>
       </c>
       <c r="P23" t="n">
-        <v>377.9642412256655</v>
+        <v>348.8152261201399</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.08396724045841</v>
+        <v>16.34348568211348</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>110.9666130150094</v>
       </c>
       <c r="K24" t="n">
-        <v>317.5594576748399</v>
+        <v>53.09422066226131</v>
       </c>
       <c r="L24" t="n">
-        <v>118.1821775254709</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="M24" t="n">
         <v>157.4654189722303</v>
@@ -36451,13 +36451,13 @@
         <v>176.1872468430308</v>
       </c>
       <c r="O24" t="n">
-        <v>138.7326723143284</v>
+        <v>231.9899980774748</v>
       </c>
       <c r="P24" t="n">
-        <v>256.4611059405786</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="Q24" t="n">
-        <v>221.0309901434093</v>
+        <v>10.95370240756017</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>175.6170123563883</v>
+        <v>6.520397184314533</v>
       </c>
       <c r="K26" t="n">
-        <v>61.02341367197516</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="L26" t="n">
-        <v>180.5077539366875</v>
+        <v>112.9794476466494</v>
       </c>
       <c r="M26" t="n">
-        <v>377.9642412256655</v>
+        <v>157.7007350675389</v>
       </c>
       <c r="N26" t="n">
         <v>164.9129103358458</v>
@@ -36612,10 +36612,10 @@
         <v>142.2526239945567</v>
       </c>
       <c r="P26" t="n">
-        <v>377.9642412256655</v>
+        <v>305.5968506323092</v>
       </c>
       <c r="Q26" t="n">
-        <v>16.34348568211348</v>
+        <v>228.6584763420182</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>110.9666130150094</v>
       </c>
       <c r="K27" t="n">
-        <v>53.09422066226131</v>
+        <v>317.5594576748399</v>
       </c>
       <c r="L27" t="n">
-        <v>377.9642412256655</v>
+        <v>206.7563299762333</v>
       </c>
       <c r="M27" t="n">
-        <v>297.6385663696991</v>
+        <v>157.4654189722303</v>
       </c>
       <c r="N27" t="n">
         <v>176.1872468430308</v>
       </c>
       <c r="O27" t="n">
-        <v>377.9642412256655</v>
+        <v>138.7326723143284</v>
       </c>
       <c r="P27" t="n">
-        <v>91.81685068000593</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="Q27" t="n">
         <v>10.95370240756017</v>
@@ -36834,25 +36834,25 @@
         <v>6.520397184314533</v>
       </c>
       <c r="K29" t="n">
-        <v>61.02341367197516</v>
+        <v>305.5968506323092</v>
       </c>
       <c r="L29" t="n">
-        <v>192.2458345820425</v>
+        <v>112.9794476466494</v>
       </c>
       <c r="M29" t="n">
-        <v>377.9642412256655</v>
+        <v>157.7007350675389</v>
       </c>
       <c r="N29" t="n">
-        <v>377.9642412256655</v>
+        <v>164.9129103358458</v>
       </c>
       <c r="O29" t="n">
-        <v>377.9642412256655</v>
+        <v>142.2526239945567</v>
       </c>
       <c r="P29" t="n">
-        <v>86.55982763145551</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="Q29" t="n">
-        <v>16.34348568211348</v>
+        <v>228.6584763420182</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>110.9666130150094</v>
       </c>
       <c r="K30" t="n">
-        <v>222.4216492352181</v>
+        <v>53.09422066226131</v>
       </c>
       <c r="L30" t="n">
-        <v>377.9642412256655</v>
+        <v>118.1821775254709</v>
       </c>
       <c r="M30" t="n">
-        <v>157.4654189722303</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="N30" t="n">
-        <v>176.1872468430308</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="O30" t="n">
         <v>138.7326723143284</v>
       </c>
       <c r="P30" t="n">
-        <v>91.81685068000593</v>
+        <v>98.6505263170876</v>
       </c>
       <c r="Q30" t="n">
         <v>221.0309901434093</v>
@@ -37074,7 +37074,7 @@
         <v>61.02341367197516</v>
       </c>
       <c r="L32" t="n">
-        <v>112.9794476466494</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="M32" t="n">
         <v>157.7007350675389</v>
@@ -37083,13 +37083,13 @@
         <v>164.9129103358458</v>
       </c>
       <c r="O32" t="n">
-        <v>217.7294457828166</v>
+        <v>165.0596428637054</v>
       </c>
       <c r="P32" t="n">
-        <v>377.9642412256655</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="Q32" t="n">
-        <v>228.6584763420182</v>
+        <v>16.34348568211348</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>110.9666130150094</v>
       </c>
       <c r="K33" t="n">
-        <v>53.09422066226131</v>
+        <v>317.5594576748399</v>
       </c>
       <c r="L33" t="n">
-        <v>118.1821775254709</v>
+        <v>377.9642412256656</v>
       </c>
       <c r="M33" t="n">
-        <v>209.6171393320969</v>
+        <v>157.4654189722303</v>
       </c>
       <c r="N33" t="n">
-        <v>377.9642412256655</v>
+        <v>291.1267261392584</v>
       </c>
       <c r="O33" t="n">
         <v>138.7326723143284</v>
       </c>
       <c r="P33" t="n">
-        <v>377.9642412256655</v>
+        <v>91.81685068000593</v>
       </c>
       <c r="Q33" t="n">
-        <v>221.0309901434093</v>
+        <v>10.95370240756017</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>61.02341367197516</v>
       </c>
       <c r="L35" t="n">
-        <v>112.9794476466494</v>
+        <v>112.9794476466489</v>
       </c>
       <c r="M35" t="n">
         <v>157.7007350675389</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.860551809561105</v>
       </c>
       <c r="K36" t="n">
         <v>53.09422066226131</v>
@@ -37405,7 +37405,7 @@
         <v>91.81685068000593</v>
       </c>
       <c r="Q36" t="n">
-        <v>12.81425421712108</v>
+        <v>10.95370240756017</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,16 +37466,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>92.90214324671443</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>12.49536440555804</v>
+        <v>174.9700659471125</v>
       </c>
       <c r="M37" t="n">
-        <v>172.0391959492385</v>
+        <v>102.4666376543986</v>
       </c>
       <c r="N37" t="n">
-        <v>188.9821206128327</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="O37" t="n">
         <v>164.7016053873373</v>
@@ -37560,7 +37560,7 @@
         <v>142.2526239945567</v>
       </c>
       <c r="P38" t="n">
-        <v>86.55982763145551</v>
+        <v>86.55982763145514</v>
       </c>
       <c r="Q38" t="n">
         <v>16.34348568211348</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.860551809561216</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>53.09422066226131</v>
+        <v>54.95477247182241</v>
       </c>
       <c r="L39" t="n">
         <v>118.1821775254709</v>
@@ -37709,7 +37709,7 @@
         <v>174.9700659471125</v>
       </c>
       <c r="M40" t="n">
-        <v>102.4666376543987</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="N40" t="n">
         <v>188.9821206128328</v>
@@ -37718,7 +37718,7 @@
         <v>164.7016053873373</v>
       </c>
       <c r="P40" t="n">
-        <v>117.1724116127678</v>
+        <v>30.65692865433358</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>6.520397184314533</v>
+        <v>6.520397184314119</v>
       </c>
       <c r="K41" t="n">
         <v>61.02341367197516</v>
@@ -37864,7 +37864,7 @@
         <v>53.09422066226131</v>
       </c>
       <c r="L42" t="n">
-        <v>118.1821775254709</v>
+        <v>120.042729335032</v>
       </c>
       <c r="M42" t="n">
         <v>157.4654189722303</v>
@@ -37876,7 +37876,7 @@
         <v>138.7326723143284</v>
       </c>
       <c r="P42" t="n">
-        <v>93.6774024895671</v>
+        <v>91.81685068000593</v>
       </c>
       <c r="Q42" t="n">
         <v>10.95370240756017</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>92.90214324671443</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>12.49536440555804</v>
+        <v>174.9700659471125</v>
       </c>
       <c r="M43" t="n">
-        <v>172.0391959492387</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="N43" t="n">
         <v>188.9821206128328</v>
@@ -37955,7 +37955,7 @@
         <v>164.7016053873373</v>
       </c>
       <c r="P43" t="n">
-        <v>117.1724116127678</v>
+        <v>30.65692865433358</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>86.55982763145551</v>
       </c>
       <c r="Q44" t="n">
-        <v>16.34348568211328</v>
+        <v>16.34348568211348</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>157.4654189722303</v>
       </c>
       <c r="N45" t="n">
-        <v>178.047798652592</v>
+        <v>176.1872468430308</v>
       </c>
       <c r="O45" t="n">
         <v>138.7326723143284</v>
@@ -38116,7 +38116,7 @@
         <v>91.81685068000593</v>
       </c>
       <c r="Q45" t="n">
-        <v>10.95370240756017</v>
+        <v>12.81425421712131</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>92.90214324671443</v>
+        <v>30.65692865433373</v>
       </c>
       <c r="L46" t="n">
         <v>174.9700659471125</v>
       </c>
       <c r="M46" t="n">
-        <v>16.46580475010975</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="N46" t="n">
-        <v>182.0808102704073</v>
+        <v>188.9821206128328</v>
       </c>
       <c r="O46" t="n">
         <v>164.7016053873373</v>
       </c>
       <c r="P46" t="n">
-        <v>117.1724116127678</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
